--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Dropbox\Meta_F1HybridVariation\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3C570-9121-4D1A-BE34-FDA71D13FDBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F76AA9B-47DF-49EE-85D9-7008D26D24B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
@@ -2981,7 +2981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3173,6 +3173,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3626,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR557"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A521" sqref="A521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
@@ -52304,11 +52322,11 @@
       <c r="AQ519" s="29"/>
       <c r="AR519" s="28"/>
     </row>
-    <row r="520" spans="1:44">
+    <row r="520" spans="1:44" s="20" customFormat="1">
       <c r="A520" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="B520" s="27" t="str">
+      <c r="B520" s="20" t="str">
         <f t="shared" si="21"/>
         <v>Drosophila_borealis_Drosophila_virilis</v>
       </c>
@@ -52423,122 +52441,122 @@
       <c r="AR520" s="28"/>
     </row>
     <row r="521" spans="1:44" s="30" customFormat="1">
-      <c r="A521" s="19" t="s">
+      <c r="A521" s="67" t="s">
         <v>415</v>
       </c>
-      <c r="B521" s="27" t="str">
+      <c r="B521" s="68" t="str">
         <f t="shared" si="21"/>
         <v>Drosophila_borealis_Drosophila_virilis</v>
       </c>
-      <c r="C521" s="20" t="s">
+      <c r="C521" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="D521" s="20" t="s">
+      <c r="D521" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="E521" s="20" t="s">
+      <c r="E521" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="F521" s="20" t="s">
+      <c r="F521" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G521" s="32" t="s">
+      <c r="G521" s="69" t="s">
         <v>592</v>
       </c>
-      <c r="H521" s="44" t="s">
+      <c r="H521" s="72" t="s">
         <v>586</v>
       </c>
-      <c r="I521" s="32" t="str">
+      <c r="I521" s="69" t="str">
         <f t="shared" si="22"/>
         <v>Drosophila_borealis_Drosophila_virilis</v>
       </c>
-      <c r="J521" s="32"/>
-      <c r="K521" s="32" t="s">
+      <c r="J521" s="69"/>
+      <c r="K521" s="69" t="s">
         <v>752</v>
       </c>
-      <c r="L521" s="28" t="s">
+      <c r="L521" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="M521" s="20">
+      <c r="M521" s="68">
         <v>28</v>
       </c>
-      <c r="N521" s="20">
+      <c r="N521" s="68">
         <v>57.9680921749693</v>
       </c>
-      <c r="O521" s="28"/>
-      <c r="P521" s="20">
+      <c r="O521" s="70"/>
+      <c r="P521" s="68">
         <v>34</v>
       </c>
-      <c r="Q521" s="20">
+      <c r="Q521" s="68">
         <v>61.558917453647702</v>
       </c>
-      <c r="R521" s="28"/>
-      <c r="S521" s="20">
+      <c r="R521" s="70"/>
+      <c r="S521" s="68">
         <v>30</v>
       </c>
-      <c r="T521" s="20">
+      <c r="T521" s="68">
         <v>60.419586577779903</v>
       </c>
-      <c r="U521" s="28"/>
-      <c r="V521" s="20">
+      <c r="U521" s="70"/>
+      <c r="V521" s="68">
         <v>46</v>
       </c>
-      <c r="W521" s="20">
+      <c r="W521" s="68">
         <v>30.530965757623999</v>
       </c>
-      <c r="X521" s="29"/>
-      <c r="Y521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE521" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF521" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG521" s="20">
+      <c r="X521" s="71"/>
+      <c r="Y521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE521" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF521" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG521" s="68">
         <v>4</v>
       </c>
-      <c r="AH521" s="20">
+      <c r="AH521" s="68">
         <v>4</v>
       </c>
-      <c r="AI521" s="20">
+      <c r="AI521" s="68">
         <v>2</v>
       </c>
-      <c r="AJ521" s="28">
+      <c r="AJ521" s="70">
         <v>5</v>
       </c>
-      <c r="AK521" s="20">
+      <c r="AK521" s="68">
         <v>96</v>
       </c>
-      <c r="AL521" s="20">
+      <c r="AL521" s="68">
         <v>86</v>
       </c>
-      <c r="AM521" s="20">
+      <c r="AM521" s="68">
         <v>51</v>
       </c>
-      <c r="AN521" s="28">
+      <c r="AN521" s="70">
         <v>112</v>
       </c>
-      <c r="AO521" s="29"/>
-      <c r="AP521" s="29"/>
-      <c r="AQ521" s="29"/>
-      <c r="AR521" s="28"/>
+      <c r="AO521" s="71"/>
+      <c r="AP521" s="71"/>
+      <c r="AQ521" s="71"/>
+      <c r="AR521" s="70"/>
     </row>
     <row r="522" spans="1:44" s="37" customFormat="1">
       <c r="A522" s="19" t="s">
@@ -61500,10 +61518,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
   <dimension ref="A1:Z571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24342E4-EE88-46E0-9DFA-435A35DB4BDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6C5DE-C7C4-41AD-975B-26A21C577C98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3973,10 +3973,10 @@
   <dimension ref="A1:AR557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R50" sqref="R50"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
@@ -7821,7 +7821,7 @@
         <v>11501</v>
       </c>
       <c r="W39" s="20">
-        <f t="shared" ref="W36:W63" si="4">IFERROR(X39*SQRT(AJ39),"NA")</f>
+        <f t="shared" ref="W39:W63" si="4">IFERROR(X39*SQRT(AJ39),"NA")</f>
         <v>650</v>
       </c>
       <c r="X39" s="33">

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6C5DE-C7C4-41AD-975B-26A21C577C98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91C308-FE1C-4AAE-885D-FC97B26FA479}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
@@ -2945,12 +2945,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Allopatry</t>
   </si>
   <si>
@@ -3012,6 +3006,12 @@
   <si>
     <t>NA</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -3972,11 +3972,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
@@ -10736,12 +10736,12 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V64" s="20"/>
       <c r="W64" s="20"/>
       <c r="X64" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
@@ -10833,12 +10833,12 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
       <c r="X65" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
@@ -10930,12 +10930,12 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V66" s="20"/>
       <c r="W66" s="20"/>
       <c r="X66" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
@@ -11027,12 +11027,12 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V67" s="20"/>
       <c r="W67" s="20"/>
       <c r="X67" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
@@ -11124,12 +11124,12 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V68" s="20"/>
       <c r="W68" s="20"/>
       <c r="X68" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
@@ -11221,12 +11221,12 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="V69" s="20"/>
       <c r="W69" s="20"/>
       <c r="X69" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
@@ -49852,7 +49852,7 @@
         <v>26</v>
       </c>
       <c r="N494" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O494" s="28"/>
       <c r="P494" s="20">
@@ -49954,7 +49954,7 @@
         <v>26</v>
       </c>
       <c r="N495" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O495" s="28"/>
       <c r="P495" s="20">
@@ -50057,7 +50057,7 @@
         <v>26</v>
       </c>
       <c r="N496" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O496" s="28"/>
       <c r="P496" s="20">
@@ -50159,7 +50159,7 @@
         <v>26</v>
       </c>
       <c r="N497" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O497" s="28"/>
       <c r="P497" s="20">
@@ -61987,10 +61987,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
   <dimension ref="A1:Z571"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -62029,7 +62029,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>727</v>
@@ -62038,10 +62038,10 @@
         <v>636</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>754</v>
@@ -62101,7 +62101,7 @@
         <v>433</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>728</v>
@@ -62110,13 +62110,13 @@
         <v>638</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>26</v>
@@ -62164,7 +62164,7 @@
         <v>438</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>728</v>
@@ -62173,13 +62173,13 @@
         <v>638</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>26</v>
@@ -62227,7 +62227,7 @@
         <v>750</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>728</v>
@@ -62236,13 +62236,13 @@
         <v>638</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>26</v>
@@ -62287,7 +62287,7 @@
         <v>751</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>728</v>
@@ -62296,13 +62296,13 @@
         <v>638</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>26</v>
@@ -62347,7 +62347,7 @@
         <v>441</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>728</v>
@@ -62356,13 +62356,13 @@
         <v>638</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>26</v>
@@ -62407,7 +62407,7 @@
         <v>439</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>728</v>
@@ -62416,13 +62416,13 @@
         <v>638</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>26</v>
@@ -62471,7 +62471,7 @@
         <v>Agrotis_ipsilon_Agrotis_segetum</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>728</v>
@@ -62480,13 +62480,13 @@
         <v>643</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>648</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="K8" s="34">
         <v>7.5999999999999998E-2</v>
@@ -62541,7 +62541,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>728</v>
@@ -62550,13 +62550,13 @@
         <v>638</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L9" s="40">
         <v>5.0999999999999997E-2</v>
@@ -62600,7 +62600,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>728</v>
@@ -62609,13 +62609,13 @@
         <v>638</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>26</v>
@@ -62668,7 +62668,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>728</v>
@@ -62677,13 +62677,13 @@
         <v>638</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>26</v>
@@ -62736,7 +62736,7 @@
         <v>722</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>728</v>
@@ -62745,13 +62745,13 @@
         <v>638</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>26</v>
@@ -62805,7 +62805,7 @@
         <v>Carabus_iwawakianus_Carabus_maiyasanus</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>728</v>
@@ -62814,13 +62814,13 @@
         <v>737</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>738</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>26</v>
@@ -62855,7 +62855,7 @@
         <v>399</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>728</v>
@@ -62864,13 +62864,13 @@
         <v>638</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L14" s="40">
         <v>3.496</v>
@@ -62912,7 +62912,7 @@
         <v>Chorthippus_biguttulus_Chorthippus_brunneus</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>728</v>
@@ -62921,13 +62921,13 @@
         <v>642</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K15" s="34">
         <v>7.0000000000000001E-3</v>
@@ -62969,7 +62969,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>601</v>
@@ -62983,7 +62983,7 @@
         <v>Chrysoperla_johnsoni_Chrysoperla_plorabunda</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>728</v>
@@ -62992,13 +62992,13 @@
         <v>644</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>26</v>
@@ -63049,7 +63049,7 @@
         <v>Drosophila_biauraria_Drosophila_subauraria</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>728</v>
@@ -63058,13 +63058,13 @@
         <v>638</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>26</v>
@@ -63109,7 +63109,7 @@
         <v>Drosophila_borealis_Drosophila_virilis</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>728</v>
@@ -63118,13 +63118,13 @@
         <v>638</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>26</v>
@@ -63172,7 +63172,7 @@
         <v>Drosophila_buzzatii_Drosophila_koepferae</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>728</v>
@@ -63181,13 +63181,13 @@
         <v>638</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L19" s="40">
         <v>1.0529999999999999</v>
@@ -63229,7 +63229,7 @@
         <v>Drosophila_flavomontana_Drosophila_lacicola</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>728</v>
@@ -63238,13 +63238,13 @@
         <v>638</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>26</v>
@@ -63296,7 +63296,7 @@
         <v>Drosophila_flavomontana_Drosophila_littoralis</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>730</v>
@@ -63305,13 +63305,13 @@
         <v>638</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>26</v>
@@ -63356,7 +63356,7 @@
         <v>Drosophila_flavomontana_Drosophila_montana</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>730</v>
@@ -63365,13 +63365,13 @@
         <v>638</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>26</v>
@@ -63416,7 +63416,7 @@
         <v>Drosophila_flavomontana_Drosophila_virilis</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>728</v>
@@ -63425,13 +63425,13 @@
         <v>638</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>26</v>
@@ -63480,7 +63480,7 @@
         <v>Drosophila_heteroneura_Drosophila_silvestris</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>733</v>
@@ -63489,13 +63489,13 @@
         <v>638</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>26</v>
@@ -63549,7 +63549,7 @@
         <v>Drosophila_kanekoi_Drosophila_virilis</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>728</v>
@@ -63558,13 +63558,13 @@
         <v>638</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>26</v>
@@ -63612,7 +63612,7 @@
         <v>Drosophila_littoralis_Drosophila_virilis</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>728</v>
@@ -63621,13 +63621,13 @@
         <v>638</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I26" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K26" s="34">
         <v>0.128</v>
@@ -63680,7 +63680,7 @@
         <v>Drosophila_lummei_Drosophila_virilis</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>728</v>
@@ -63689,13 +63689,13 @@
         <v>638</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K27" s="25">
         <v>0.06</v>
@@ -63749,7 +63749,7 @@
         <v>Drosophila_montana_Drosophila_virilis</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>728</v>
@@ -63758,13 +63758,13 @@
         <v>638</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>26</v>
@@ -63813,7 +63813,7 @@
         <v>Drosophila_persimilis_Drosophila_pseudoobscura</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>728</v>
@@ -63822,13 +63822,13 @@
         <v>638</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K29" s="25">
         <v>0.89300000000000002</v>
@@ -63862,7 +63862,7 @@
         <v>Drosophila_quadraria_Drosophila_biauraria</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>728</v>
@@ -63871,13 +63871,13 @@
         <v>638</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>26</v>
@@ -63922,7 +63922,7 @@
         <v>Drosophila_quadraria_Drosophila_subauraria</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>728</v>
@@ -63931,13 +63931,13 @@
         <v>638</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>26</v>
@@ -63982,7 +63982,7 @@
         <v>Drosophila_triauraria_Drosophila_biauraria</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>728</v>
@@ -63991,13 +63991,13 @@
         <v>638</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K32" s="25" t="s">
         <v>26</v>
@@ -64042,7 +64042,7 @@
         <v>Drosophila_triauraria_Drosophila_quadraria</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>728</v>
@@ -64051,13 +64051,13 @@
         <v>638</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>26</v>
@@ -64101,7 +64101,7 @@
         <v>723</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>728</v>
@@ -64110,13 +64110,13 @@
         <v>639</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>652</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="K34" s="34">
         <v>1.7999999999999999E-2</v>
@@ -64169,7 +64169,7 @@
         <v>724</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>728</v>
@@ -64178,13 +64178,13 @@
         <v>639</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>652</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="K35" s="34">
         <v>1.7999999999999999E-2</v>
@@ -64237,7 +64237,7 @@
         <v>82</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>728</v>
@@ -64246,13 +64246,13 @@
         <v>638</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K36" s="25">
         <v>1.7000000000000001E-2</v>
@@ -64296,7 +64296,7 @@
         <v>76</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>728</v>
@@ -64305,13 +64305,13 @@
         <v>638</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K37" s="25">
         <v>1.7000000000000001E-2</v>
@@ -64356,7 +64356,7 @@
         <v>Gryllus_armatus_Gryllus_rubens</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>730</v>
@@ -64365,13 +64365,13 @@
         <v>642</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K38" s="34" t="s">
         <v>26</v>
@@ -64422,7 +64422,7 @@
         <v>Gryllus_campestris_Gryllus_rubens</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>730</v>
@@ -64431,13 +64431,13 @@
         <v>642</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K39" s="34">
         <v>0.111</v>
@@ -64488,7 +64488,7 @@
         <v>Gryllus_rubens_Gryllus_texensis</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>728</v>
@@ -64497,13 +64497,13 @@
         <v>642</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I40" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K40" s="25">
         <v>4.0000000000000001E-3</v>
@@ -64556,7 +64556,7 @@
         <v>395</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>728</v>
@@ -64565,13 +64565,13 @@
         <v>638</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I41" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L41" s="40">
         <v>3.496</v>
@@ -64613,7 +64613,7 @@
         <v>Haplochromis_burtoni_Haplochromis_nubilus</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>728</v>
@@ -64667,7 +64667,7 @@
         <v>Hyla_chrysoscelis_Hyla_femoralis</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>728</v>
@@ -64676,13 +64676,13 @@
         <v>637</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>646</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K43" s="25">
         <v>3.1E-2</v>
@@ -64715,7 +64715,7 @@
         <v>403</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>728</v>
@@ -64724,13 +64724,13 @@
         <v>642</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K44" s="25" t="s">
         <v>26</v>
@@ -64774,7 +64774,7 @@
         <v>400</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>728</v>
@@ -64783,13 +64783,13 @@
         <v>638</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L45" s="40">
         <v>3.496</v>
@@ -64830,7 +64830,7 @@
         <v>401</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F46" s="45" t="s">
         <v>728</v>
@@ -64839,13 +64839,13 @@
         <v>638</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L46" s="40">
         <v>3.496</v>
@@ -64886,7 +64886,7 @@
         <v>130</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>728</v>
@@ -64895,13 +64895,13 @@
         <v>640</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>646</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K47" s="34">
         <v>3.1E-2</v>
@@ -64951,7 +64951,7 @@
         <v>386</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F48" s="45" t="s">
         <v>728</v>
@@ -64960,13 +64960,13 @@
         <v>640</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I48" s="32" t="s">
         <v>646</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K48" s="34">
         <v>3.1E-2</v>
@@ -65016,7 +65016,7 @@
         <v>409</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F49" s="45" t="s">
         <v>728</v>
@@ -65025,13 +65025,13 @@
         <v>642</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K49" s="25" t="s">
         <v>26</v>
@@ -65075,7 +65075,7 @@
         <v>86</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>728</v>
@@ -65084,13 +65084,13 @@
         <v>638</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K50" s="25">
         <v>1.7000000000000001E-2</v>
@@ -65134,7 +65134,7 @@
         <v>32</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>728</v>
@@ -65143,13 +65143,13 @@
         <v>642</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K51" s="25" t="s">
         <v>26</v>
@@ -65202,7 +65202,7 @@
         <v>38</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>728</v>
@@ -65211,13 +65211,13 @@
         <v>642</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K52" s="25" t="s">
         <v>26</v>
@@ -65270,7 +65270,7 @@
         <v>92</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>728</v>
@@ -65279,13 +65279,13 @@
         <v>638</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K53" s="25" t="s">
         <v>26</v>
@@ -65330,7 +65330,7 @@
         <v>Pundamilia_nyererei_Pundamilia_pundamilia</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>728</v>
@@ -65389,7 +65389,7 @@
         <v>84</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F55" s="45" t="s">
         <v>728</v>
@@ -65398,13 +65398,13 @@
         <v>638</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I55" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K55" s="25">
         <v>1.7000000000000001E-2</v>
@@ -65448,7 +65448,7 @@
         <v>83</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F56" s="45" t="s">
         <v>728</v>
@@ -65457,13 +65457,13 @@
         <v>638</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K56" s="25">
         <v>1.7000000000000001E-2</v>
@@ -65507,7 +65507,7 @@
         <v>725</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F57" s="45" t="s">
         <v>728</v>
@@ -65516,13 +65516,13 @@
         <v>642</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K57" s="25" t="s">
         <v>26</v>
@@ -65566,7 +65566,7 @@
         <v>729</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>728</v>
@@ -65575,13 +65575,13 @@
         <v>638</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K58" s="25" t="s">
         <v>26</v>
@@ -65616,10 +65616,10 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C59" s="45" t="str">
         <f t="shared" si="8"/>
@@ -65630,7 +65630,7 @@
         <v>Spodoptera_descoinsi_Spodoptera_latifascia</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F59" s="45" t="s">
         <v>730</v>
@@ -65639,13 +65639,13 @@
         <v>643</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I59" s="32" t="s">
         <v>648</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="K59" s="34">
         <v>4.2999999999999997E-2</v>
@@ -65694,22 +65694,22 @@
         <v>Teleogryllus_commodus_Teleogryllus_oceanicus</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>666</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>647</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K60" s="34">
         <v>0.123</v>
@@ -65759,7 +65759,7 @@
         <v>65</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F61" s="45" t="s">
         <v>728</v>
@@ -65768,13 +65768,13 @@
         <v>638</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L61" s="40">
         <v>5.0999999999999997E-2</v>
@@ -65818,7 +65818,7 @@
         <v>59</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>728</v>
@@ -65827,13 +65827,13 @@
         <v>638</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="L62" s="40">
         <v>5.0999999999999997E-2</v>
@@ -65877,7 +65877,7 @@
         <v>90</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F63" s="45" t="s">
         <v>728</v>
@@ -65886,13 +65886,13 @@
         <v>638</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>646</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="K63" s="25">
         <v>1.7000000000000001E-2</v>

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BB0FA-8E99-45C2-BE1D-7288F8BEBD2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D00A66-436B-4436-AA59-F9864AD1AC28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62062,10 +62062,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -64169,7 +64169,7 @@
         <v>688</v>
       </c>
       <c r="C34" s="45" t="str">
-        <f t="shared" ref="C34:D62" si="8">A34&amp;"_"&amp;B34</f>
+        <f t="shared" ref="C34:C62" si="8">A34&amp;"_"&amp;B34</f>
         <v>Coturnix_coturnix_coturnix_Coturnix_japonica</v>
       </c>
       <c r="D34" s="58" t="str">

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D00A66-436B-4436-AA59-F9864AD1AC28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB56DE9-ACE7-4DE4-A7E4-34C35B58D448}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9001" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9311" uniqueCount="844">
   <si>
     <t>Study.ID</t>
   </si>
@@ -3059,6 +3059,177 @@
   </si>
   <si>
     <t>Coturnix_coturnix_coturnix_Coturnix_japonica</t>
+  </si>
+  <si>
+    <t>species.pair</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>source_distribution</t>
+  </si>
+  <si>
+    <t>souce_sex.determinaton</t>
+  </si>
+  <si>
+    <t>sex.determination</t>
+  </si>
+  <si>
+    <t>hetero.sex</t>
+  </si>
+  <si>
+    <t>divergence.COI</t>
+  </si>
+  <si>
+    <t>Drosophila_auraria_Drosophila_biauraria</t>
+  </si>
+  <si>
+    <t>original study</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Drosophila_auraria_Drosophila_quadraria</t>
+  </si>
+  <si>
+    <t>Drosophila_auraria_Drosophila_subauraria</t>
+  </si>
+  <si>
+    <t>Drosophila_auraria_Drosophila_triauraria</t>
+  </si>
+  <si>
+    <t>Agrotis_ipsilon_Agrotis_segetum</t>
+  </si>
+  <si>
+    <t>ZW/Z0</t>
+  </si>
+  <si>
+    <t>Drosophila_melanogaster_Drosophila_simulans</t>
+  </si>
+  <si>
+    <t>Drosophila_mauritiana_Drosophila_simulans</t>
+  </si>
+  <si>
+    <t>Drosophila_madeirensis_Drosophila_subobscura</t>
+  </si>
+  <si>
+    <t>Chorthippus_biguttulus_Chorthippus_brunneus</t>
+  </si>
+  <si>
+    <t>X0/XY</t>
+  </si>
+  <si>
+    <t>Chrysoperla_johnsoni_Chrysoperla_plorabunda</t>
+  </si>
+  <si>
+    <t>Drosophila_biauraria_Drosophila_subauraria</t>
+  </si>
+  <si>
+    <t>Drosophila_borealis_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_buzzatii_Drosophila_koepferae</t>
+  </si>
+  <si>
+    <t>Drosophila_flavomontana_Drosophila_lacicola</t>
+  </si>
+  <si>
+    <t>Drosophila_flavomontana_Drosophila_littoralis</t>
+  </si>
+  <si>
+    <t>original paper</t>
+  </si>
+  <si>
+    <t>Drosophila_flavomontana_Drosophila_montana</t>
+  </si>
+  <si>
+    <t>Drosophila_flavomontana_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_heteroneura_Drosophila_silvestris</t>
+  </si>
+  <si>
+    <t>"Drosophila heteroneura and Drosophila silvestris: Head Shapes, Behavior and Evolution"</t>
+  </si>
+  <si>
+    <t>Drosophila_kanekoi_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_littoralis_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_lummei_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_montana_Drosophila_virilis</t>
+  </si>
+  <si>
+    <t>Drosophila_persimilis_Drosophila_pseudoobscura</t>
+  </si>
+  <si>
+    <t>Drosophila_quadraria_Drosophila_biauraria</t>
+  </si>
+  <si>
+    <t>Drosophila_quadraria_Drosophila_subauraria</t>
+  </si>
+  <si>
+    <t>Drosophila_triauraria_Drosophila_biauraria</t>
+  </si>
+  <si>
+    <t>Drosophila_triauraria_Drosophila_quadraria</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Drosophila_sechellia_Drosophila_simulans</t>
+  </si>
+  <si>
+    <t>Gryllus_armatus_Gryllus_rubens</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>Gryllus_campestris_Gryllus_rubens</t>
+  </si>
+  <si>
+    <t>Gryllus_rubens_Gryllus_texensis</t>
+  </si>
+  <si>
+    <t>Haplochromis_burtoni_Haplochromis_nubilus</t>
+  </si>
+  <si>
+    <t>Teleost</t>
+  </si>
+  <si>
+    <t>Hyla_chrysoscelis_Hyla_femoralis</t>
+  </si>
+  <si>
+    <t>Laupala_kohalensis_Laupala_paranigra</t>
+  </si>
+  <si>
+    <t>Mus_musculus_domesticus_Mus_musculus_musculus</t>
+  </si>
+  <si>
+    <t>Chorthippus_parallelus_erythropus_Chorthippus_parallelus_parallelus</t>
+  </si>
+  <si>
+    <t>Drosophila_mauritiana_Drosophila_sechellia</t>
+  </si>
+  <si>
+    <t>Pundamilia_nyererei_Pundamilia_pundamilia</t>
+  </si>
+  <si>
+    <t>Spodoptera_descoinsi_Spodoptera_latifascia</t>
+  </si>
+  <si>
+    <t>Teleogryllus_commodus_Teleogryllus_oceanicus</t>
+  </si>
+  <si>
+    <t>The Australian crickets (Orthoptera: Gryllidae)</t>
   </si>
 </sst>
 </file>
@@ -62059,13 +62230,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -64348,7 +64518,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1">
+    <row r="37" spans="1:23">
       <c r="A37" s="63" t="s">
         <v>579</v>
       </c>
@@ -64605,7 +64775,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1">
+    <row r="41" spans="1:23">
       <c r="A41" s="21" t="s">
         <v>622</v>
       </c>
@@ -64708,7 +64878,7 @@
       </c>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:23" hidden="1">
+    <row r="43" spans="1:23">
       <c r="A43" s="65" t="s">
         <v>717</v>
       </c>
@@ -65009,7 +65179,7 @@
       </c>
       <c r="W47" s="20"/>
     </row>
-    <row r="48" spans="1:23" hidden="1">
+    <row r="48" spans="1:23">
       <c r="A48" s="65" t="s">
         <v>589</v>
       </c>
@@ -65127,7 +65297,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1">
+    <row r="50" spans="1:23">
       <c r="A50" s="66" t="s">
         <v>730</v>
       </c>
@@ -65195,7 +65365,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1">
+    <row r="51" spans="1:23">
       <c r="A51" s="66" t="s">
         <v>667</v>
       </c>
@@ -65322,7 +65492,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1">
+    <row r="53" spans="1:23">
       <c r="A53" s="21" t="s">
         <v>604</v>
       </c>
@@ -65500,7 +65670,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1">
+    <row r="56" spans="1:23">
       <c r="A56" s="65" t="s">
         <v>589</v>
       </c>
@@ -78632,40 +78802,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W62" xr:uid="{3420C359-377A-40B4-AE55-C178A96FFD3B}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="0.001"/>
-        <filter val="0.002"/>
-        <filter val="0.004"/>
-        <filter val="0.006"/>
-        <filter val="0.009"/>
-        <filter val="0.011"/>
-        <filter val="0.014"/>
-        <filter val="0.018"/>
-        <filter val="0.019"/>
-        <filter val="0.029"/>
-        <filter val="0.033"/>
-        <filter val="0.034"/>
-        <filter val="0.041"/>
-        <filter val="0.049"/>
-        <filter val="0.051"/>
-        <filter val="0.057"/>
-        <filter val="0.09"/>
-        <filter val="0.112"/>
-        <filter val="0.12"/>
-        <filter val="0.122"/>
-        <filter val="0.64"/>
-        <filter val="0.849"/>
-        <filter val="0.984"/>
-        <filter val="1.011"/>
-        <filter val="1.031"/>
-        <filter val="1.053"/>
-        <filter val="1.273"/>
-        <filter val="1.313"/>
-        <filter val="3.496"/>
-        <filter val="4.599"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W62">
       <sortCondition ref="D1"/>
     </sortState>
@@ -78682,10 +78818,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE110F8-ACC2-469E-A41B-B70991738BCC}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -78696,10 +78832,11 @@
     <col min="4" max="4" width="9.36328125" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="16"/>
     <col min="6" max="6" width="15.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="16"/>
+    <col min="7" max="7" width="40.90625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
@@ -78715,8 +78852,32 @@
       <c r="E1" s="16" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="73" t="s">
         <v>722</v>
       </c>
@@ -78730,8 +78891,32 @@
       <c r="E2" s="73" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N2" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="73" t="s">
         <v>779</v>
       </c>
@@ -78745,8 +78930,32 @@
       <c r="E3" s="73" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
         <v>769</v>
       </c>
@@ -78762,8 +78971,32 @@
       <c r="E4" s="16" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N4" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="73" t="s">
         <v>596</v>
       </c>
@@ -78775,8 +79008,32 @@
       <c r="E5" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N5" s="16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="73" t="s">
         <v>596</v>
       </c>
@@ -78788,8 +79045,32 @@
       <c r="E6" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="73" t="s">
         <v>596</v>
       </c>
@@ -78801,8 +79082,32 @@
       <c r="E7" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N7" s="16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="73" t="s">
         <v>596</v>
       </c>
@@ -78814,8 +79119,32 @@
       <c r="E8" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="73" t="s">
         <v>610</v>
       </c>
@@ -78829,8 +79158,32 @@
       <c r="E9" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="73" t="s">
         <v>612</v>
       </c>
@@ -78842,8 +79195,32 @@
       <c r="E10" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N10" s="16">
+        <v>3.496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="73" t="s">
         <v>618</v>
       </c>
@@ -78855,8 +79232,32 @@
       <c r="E11" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="73" t="s">
         <v>597</v>
       </c>
@@ -78868,8 +79269,32 @@
       <c r="E12" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="73" t="s">
         <v>592</v>
       </c>
@@ -78881,8 +79306,32 @@
       <c r="E13" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="73" t="s">
         <v>620</v>
       </c>
@@ -78894,8 +79343,32 @@
       <c r="E14" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="73" t="s">
         <v>588</v>
       </c>
@@ -78907,8 +79380,32 @@
       <c r="E15" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="73" t="s">
         <v>588</v>
       </c>
@@ -78920,8 +79417,32 @@
       <c r="E16" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="73" t="s">
         <v>588</v>
       </c>
@@ -78933,8 +79454,32 @@
       <c r="E17" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="73" t="s">
         <v>588</v>
       </c>
@@ -78946,8 +79491,32 @@
       <c r="E18" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1.2729999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="73" t="s">
         <v>608</v>
       </c>
@@ -78959,8 +79528,32 @@
       <c r="E19" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="73" t="s">
         <v>594</v>
       </c>
@@ -78972,8 +79565,32 @@
       <c r="E20" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N20" s="16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="73" t="s">
         <v>587</v>
       </c>
@@ -78985,8 +79602,32 @@
       <c r="E21" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="73" t="s">
         <v>591</v>
       </c>
@@ -78998,8 +79639,32 @@
       <c r="E22" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="73" t="s">
         <v>593</v>
       </c>
@@ -79011,8 +79676,32 @@
       <c r="E23" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N23" s="16">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="73" t="s">
         <v>615</v>
       </c>
@@ -79024,8 +79713,32 @@
       <c r="E24" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="73" t="s">
         <v>602</v>
       </c>
@@ -79037,8 +79750,32 @@
       <c r="E25" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N25" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="73" t="s">
         <v>602</v>
       </c>
@@ -79050,8 +79787,32 @@
       <c r="E26" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N26" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="73" t="s">
         <v>598</v>
       </c>
@@ -79063,8 +79824,32 @@
       <c r="E27" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N27" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="73" t="s">
         <v>598</v>
       </c>
@@ -79076,8 +79861,32 @@
       <c r="E28" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N28" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="73" t="s">
         <v>613</v>
       </c>
@@ -79089,8 +79898,32 @@
       <c r="E29" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N29" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="73" t="s">
         <v>612</v>
       </c>
@@ -79102,8 +79935,32 @@
       <c r="E30" s="73" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="N30" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="73" t="s">
         <v>780</v>
       </c>
@@ -79117,8 +79974,32 @@
       <c r="E31" s="73" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5">
+      <c r="G31" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N31" s="16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5">
       <c r="A32" s="16" t="s">
         <v>582</v>
       </c>
@@ -79131,8 +80012,32 @@
       <c r="E32" s="16" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="68" t="s">
+        <v>829</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>813</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="L32" s="68" t="s">
+        <v>830</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="N32" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="16" t="s">
         <v>584</v>
       </c>
@@ -79142,8 +80047,32 @@
       <c r="E33" s="16" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N33" s="16">
+        <v>4.5990000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="27" t="s">
         <v>750</v>
       </c>
@@ -79158,8 +80087,32 @@
       <c r="F34" s="16" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N34" s="16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="16" t="s">
         <v>576</v>
       </c>
@@ -79169,8 +80122,28 @@
       <c r="E35" s="16" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="68" t="s">
+        <v>833</v>
+      </c>
+      <c r="H35" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>834</v>
+      </c>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="16" t="s">
         <v>580</v>
       </c>
@@ -79180,8 +80153,32 @@
       <c r="E36" s="16" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="16" t="s">
         <v>605</v>
       </c>
@@ -79191,8 +80188,32 @@
       <c r="E37" s="16" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="68" t="s">
+        <v>836</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="J37" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="K37" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="L37" s="68" t="s">
+        <v>806</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="N37" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="73" t="s">
         <v>578</v>
       </c>
@@ -79206,6 +80227,362 @@
       <c r="E38" s="73" t="s">
         <v>642</v>
       </c>
+      <c r="G38" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N38" s="16">
+        <v>3.496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="G39" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N39" s="16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="G40" s="68" t="s">
+        <v>838</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="J40" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="K40" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="L40" s="68" t="s">
+        <v>830</v>
+      </c>
+      <c r="M40" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="N40" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="G41" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N41" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="G42" s="68" t="s">
+        <v>840</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>834</v>
+      </c>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="G43" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="N43" s="16">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="G44" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="N44" s="16">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16.5">
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" ht="16.5">
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" ht="16.5">
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5">
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="7:14" ht="16.5">
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="7:14" ht="16.5">
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="7:14" ht="16.5">
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="7:14" ht="16.5">
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="7:14" ht="16.5">
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="7:14" ht="16.5">
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="7:14" ht="16.5">
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="7:14" ht="16.5">
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="7:14" ht="16.5">
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="7:14" ht="16.5">
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="7:14" ht="16.5">
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="7:14" ht="16.5">
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="7:14" ht="16.5">
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="7:14" ht="16.5">
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FEC421-F763-4AE0-BBB5-CDC0C1784727}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139C7DD-9161-42F0-A4B6-2F47B4D521B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4271,14 +4271,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
@@ -4462,7 +4461,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2" spans="1:45" hidden="1">
+    <row r="2" spans="1:45">
       <c r="A2" s="19" t="s">
         <v>714</v>
       </c>
@@ -4575,7 +4574,7 @@
       <c r="AR2" s="29"/>
       <c r="AS2" s="28"/>
     </row>
-    <row r="3" spans="1:45" hidden="1">
+    <row r="3" spans="1:45">
       <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="AR3" s="29"/>
       <c r="AS3" s="28"/>
     </row>
-    <row r="4" spans="1:45" hidden="1">
+    <row r="4" spans="1:45">
       <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4800,7 @@
       <c r="AR4" s="29"/>
       <c r="AS4" s="28"/>
     </row>
-    <row r="5" spans="1:45" hidden="1">
+    <row r="5" spans="1:45">
       <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
@@ -4914,7 +4913,7 @@
       <c r="AR5" s="29"/>
       <c r="AS5" s="28"/>
     </row>
-    <row r="6" spans="1:45" hidden="1">
+    <row r="6" spans="1:45">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -5027,7 +5026,7 @@
       <c r="AR6" s="29"/>
       <c r="AS6" s="28"/>
     </row>
-    <row r="7" spans="1:45" hidden="1">
+    <row r="7" spans="1:45">
       <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
@@ -5123,7 +5122,7 @@
       <c r="AR7" s="29"/>
       <c r="AS7" s="28"/>
     </row>
-    <row r="8" spans="1:45" hidden="1">
+    <row r="8" spans="1:45">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -5219,7 +5218,7 @@
       <c r="AR8" s="29"/>
       <c r="AS8" s="28"/>
     </row>
-    <row r="9" spans="1:45" hidden="1">
+    <row r="9" spans="1:45">
       <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
@@ -5315,7 +5314,7 @@
       <c r="AR9" s="29"/>
       <c r="AS9" s="28"/>
     </row>
-    <row r="10" spans="1:45" hidden="1">
+    <row r="10" spans="1:45">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -5411,7 +5410,7 @@
       <c r="AR10" s="29"/>
       <c r="AS10" s="28"/>
     </row>
-    <row r="11" spans="1:45" hidden="1">
+    <row r="11" spans="1:45">
       <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
@@ -5507,7 +5506,7 @@
       <c r="AR11" s="29"/>
       <c r="AS11" s="28"/>
     </row>
-    <row r="12" spans="1:45" hidden="1">
+    <row r="12" spans="1:45">
       <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
@@ -5603,7 +5602,7 @@
       <c r="AR12" s="29"/>
       <c r="AS12" s="28"/>
     </row>
-    <row r="13" spans="1:45" hidden="1">
+    <row r="13" spans="1:45">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -5699,7 +5698,7 @@
       <c r="AR13" s="29"/>
       <c r="AS13" s="28"/>
     </row>
-    <row r="14" spans="1:45" hidden="1">
+    <row r="14" spans="1:45">
       <c r="A14" s="19" t="s">
         <v>31</v>
       </c>
@@ -5795,7 +5794,7 @@
       <c r="AR14" s="29"/>
       <c r="AS14" s="28"/>
     </row>
-    <row r="15" spans="1:45" hidden="1">
+    <row r="15" spans="1:45">
       <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
@@ -5891,7 +5890,7 @@
       <c r="AR15" s="29"/>
       <c r="AS15" s="28"/>
     </row>
-    <row r="16" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="16" spans="1:45" s="30" customFormat="1">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -5987,7 +5986,7 @@
       <c r="AR16" s="29"/>
       <c r="AS16" s="28"/>
     </row>
-    <row r="17" spans="1:45" hidden="1">
+    <row r="17" spans="1:45">
       <c r="A17" s="19" t="s">
         <v>31</v>
       </c>
@@ -6083,7 +6082,7 @@
       <c r="AR17" s="29"/>
       <c r="AS17" s="28"/>
     </row>
-    <row r="18" spans="1:45" hidden="1">
+    <row r="18" spans="1:45">
       <c r="A18" s="19" t="s">
         <v>31</v>
       </c>
@@ -6179,7 +6178,7 @@
       <c r="AR18" s="29"/>
       <c r="AS18" s="28"/>
     </row>
-    <row r="19" spans="1:45" hidden="1">
+    <row r="19" spans="1:45">
       <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
@@ -6275,7 +6274,7 @@
       <c r="AR19" s="29"/>
       <c r="AS19" s="28"/>
     </row>
-    <row r="20" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="20" spans="1:45" ht="16" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
@@ -6371,7 +6370,7 @@
       <c r="AR20" s="29"/>
       <c r="AS20" s="28"/>
     </row>
-    <row r="21" spans="1:45" hidden="1">
+    <row r="21" spans="1:45">
       <c r="A21" s="19" t="s">
         <v>31</v>
       </c>
@@ -6467,7 +6466,7 @@
       <c r="AR21" s="29"/>
       <c r="AS21" s="28"/>
     </row>
-    <row r="22" spans="1:45" hidden="1">
+    <row r="22" spans="1:45">
       <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
@@ -6563,7 +6562,7 @@
       <c r="AR22" s="29"/>
       <c r="AS22" s="28"/>
     </row>
-    <row r="23" spans="1:45" hidden="1">
+    <row r="23" spans="1:45">
       <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
@@ -6659,7 +6658,7 @@
       <c r="AR23" s="29"/>
       <c r="AS23" s="28"/>
     </row>
-    <row r="24" spans="1:45" hidden="1">
+    <row r="24" spans="1:45">
       <c r="A24" s="19" t="s">
         <v>31</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="AR24" s="29"/>
       <c r="AS24" s="28"/>
     </row>
-    <row r="25" spans="1:45" hidden="1">
+    <row r="25" spans="1:45">
       <c r="A25" s="19" t="s">
         <v>31</v>
       </c>
@@ -6851,7 +6850,7 @@
       <c r="AR25" s="29"/>
       <c r="AS25" s="28"/>
     </row>
-    <row r="26" spans="1:45" hidden="1">
+    <row r="26" spans="1:45">
       <c r="A26" s="19" t="s">
         <v>31</v>
       </c>
@@ -6947,7 +6946,7 @@
       <c r="AR26" s="29"/>
       <c r="AS26" s="28"/>
     </row>
-    <row r="27" spans="1:45" hidden="1">
+    <row r="27" spans="1:45">
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
@@ -7043,7 +7042,7 @@
       <c r="AR27" s="29"/>
       <c r="AS27" s="28"/>
     </row>
-    <row r="28" spans="1:45" hidden="1">
+    <row r="28" spans="1:45">
       <c r="A28" s="19" t="s">
         <v>31</v>
       </c>
@@ -7139,7 +7138,7 @@
       <c r="AR28" s="29"/>
       <c r="AS28" s="28"/>
     </row>
-    <row r="29" spans="1:45" hidden="1">
+    <row r="29" spans="1:45">
       <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
@@ -7235,7 +7234,7 @@
       <c r="AR29" s="29"/>
       <c r="AS29" s="28"/>
     </row>
-    <row r="30" spans="1:45" hidden="1">
+    <row r="30" spans="1:45">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
@@ -7331,7 +7330,7 @@
       <c r="AR30" s="29"/>
       <c r="AS30" s="28"/>
     </row>
-    <row r="31" spans="1:45" hidden="1">
+    <row r="31" spans="1:45">
       <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
@@ -7427,7 +7426,7 @@
       <c r="AR31" s="29"/>
       <c r="AS31" s="28"/>
     </row>
-    <row r="32" spans="1:45" hidden="1">
+    <row r="32" spans="1:45">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -7523,7 +7522,7 @@
       <c r="AR32" s="29"/>
       <c r="AS32" s="28"/>
     </row>
-    <row r="33" spans="1:45" hidden="1">
+    <row r="33" spans="1:45">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
@@ -7619,7 +7618,7 @@
       <c r="AR33" s="29"/>
       <c r="AS33" s="28"/>
     </row>
-    <row r="34" spans="1:45" hidden="1">
+    <row r="34" spans="1:45">
       <c r="A34" s="19" t="s">
         <v>31</v>
       </c>
@@ -7715,7 +7714,7 @@
       <c r="AR34" s="29"/>
       <c r="AS34" s="28"/>
     </row>
-    <row r="35" spans="1:45" hidden="1">
+    <row r="35" spans="1:45">
       <c r="A35" s="19" t="s">
         <v>52</v>
       </c>
@@ -7828,7 +7827,7 @@
       <c r="AR35" s="29"/>
       <c r="AS35" s="28"/>
     </row>
-    <row r="36" spans="1:45" hidden="1">
+    <row r="36" spans="1:45">
       <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
@@ -7942,7 +7941,7 @@
       </c>
       <c r="AS36" s="28"/>
     </row>
-    <row r="37" spans="1:45" hidden="1">
+    <row r="37" spans="1:45">
       <c r="A37" s="19" t="s">
         <v>58</v>
       </c>
@@ -8056,7 +8055,7 @@
       </c>
       <c r="AS37" s="28"/>
     </row>
-    <row r="38" spans="1:45" hidden="1">
+    <row r="38" spans="1:45">
       <c r="A38" s="19" t="s">
         <v>58</v>
       </c>
@@ -8170,7 +8169,7 @@
       </c>
       <c r="AS38" s="28"/>
     </row>
-    <row r="39" spans="1:45" hidden="1">
+    <row r="39" spans="1:45">
       <c r="A39" s="19" t="s">
         <v>58</v>
       </c>
@@ -8293,7 +8292,7 @@
       </c>
       <c r="AS39" s="28"/>
     </row>
-    <row r="40" spans="1:45" hidden="1">
+    <row r="40" spans="1:45">
       <c r="A40" s="19" t="s">
         <v>58</v>
       </c>
@@ -8416,7 +8415,7 @@
       </c>
       <c r="AS40" s="28"/>
     </row>
-    <row r="41" spans="1:45" hidden="1">
+    <row r="41" spans="1:45">
       <c r="A41" s="19" t="s">
         <v>58</v>
       </c>
@@ -8539,7 +8538,7 @@
       </c>
       <c r="AS41" s="28"/>
     </row>
-    <row r="42" spans="1:45" hidden="1">
+    <row r="42" spans="1:45">
       <c r="A42" s="19" t="s">
         <v>58</v>
       </c>
@@ -8662,7 +8661,7 @@
       </c>
       <c r="AS42" s="28"/>
     </row>
-    <row r="43" spans="1:45" hidden="1">
+    <row r="43" spans="1:45">
       <c r="A43" s="19" t="s">
         <v>58</v>
       </c>
@@ -8785,7 +8784,7 @@
       </c>
       <c r="AS43" s="28"/>
     </row>
-    <row r="44" spans="1:45" hidden="1">
+    <row r="44" spans="1:45">
       <c r="A44" s="19" t="s">
         <v>58</v>
       </c>
@@ -8908,7 +8907,7 @@
       </c>
       <c r="AS44" s="28"/>
     </row>
-    <row r="45" spans="1:45" hidden="1">
+    <row r="45" spans="1:45">
       <c r="A45" s="19" t="s">
         <v>58</v>
       </c>
@@ -9032,7 +9031,7 @@
       <c r="AR45" s="20"/>
       <c r="AS45" s="28"/>
     </row>
-    <row r="46" spans="1:45" hidden="1">
+    <row r="46" spans="1:45">
       <c r="A46" s="19" t="s">
         <v>58</v>
       </c>
@@ -9156,7 +9155,7 @@
       <c r="AR46" s="20"/>
       <c r="AS46" s="28"/>
     </row>
-    <row r="47" spans="1:45" hidden="1">
+    <row r="47" spans="1:45">
       <c r="A47" s="19" t="s">
         <v>58</v>
       </c>
@@ -9280,7 +9279,7 @@
       <c r="AR47" s="20"/>
       <c r="AS47" s="28"/>
     </row>
-    <row r="48" spans="1:45" hidden="1">
+    <row r="48" spans="1:45">
       <c r="A48" s="19" t="s">
         <v>58</v>
       </c>
@@ -9404,7 +9403,7 @@
       <c r="AR48" s="29"/>
       <c r="AS48" s="28"/>
     </row>
-    <row r="49" spans="1:45" hidden="1">
+    <row r="49" spans="1:45">
       <c r="A49" s="19" t="s">
         <v>58</v>
       </c>
@@ -9528,7 +9527,7 @@
       <c r="AR49" s="29"/>
       <c r="AS49" s="28"/>
     </row>
-    <row r="50" spans="1:45" hidden="1">
+    <row r="50" spans="1:45">
       <c r="A50" s="19" t="s">
         <v>58</v>
       </c>
@@ -9652,7 +9651,7 @@
       <c r="AR50" s="29"/>
       <c r="AS50" s="28"/>
     </row>
-    <row r="51" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="51" spans="1:45" s="20" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>69</v>
       </c>
@@ -9776,7 +9775,7 @@
       <c r="AR51" s="29"/>
       <c r="AS51" s="28"/>
     </row>
-    <row r="52" spans="1:45" hidden="1">
+    <row r="52" spans="1:45">
       <c r="A52" s="19" t="s">
         <v>75</v>
       </c>
@@ -9892,7 +9891,7 @@
       <c r="AR52" s="29"/>
       <c r="AS52" s="28"/>
     </row>
-    <row r="53" spans="1:45" hidden="1">
+    <row r="53" spans="1:45">
       <c r="A53" s="19" t="s">
         <v>75</v>
       </c>
@@ -10008,7 +10007,7 @@
       <c r="AR53" s="29"/>
       <c r="AS53" s="28"/>
     </row>
-    <row r="54" spans="1:45" hidden="1">
+    <row r="54" spans="1:45">
       <c r="A54" s="19" t="s">
         <v>75</v>
       </c>
@@ -10124,7 +10123,7 @@
       <c r="AR54" s="29"/>
       <c r="AS54" s="28"/>
     </row>
-    <row r="55" spans="1:45" hidden="1">
+    <row r="55" spans="1:45">
       <c r="A55" s="19" t="s">
         <v>75</v>
       </c>
@@ -10240,7 +10239,7 @@
       <c r="AR55" s="29"/>
       <c r="AS55" s="28"/>
     </row>
-    <row r="56" spans="1:45" hidden="1">
+    <row r="56" spans="1:45">
       <c r="A56" s="19" t="s">
         <v>75</v>
       </c>
@@ -10356,7 +10355,7 @@
       <c r="AR56" s="29"/>
       <c r="AS56" s="28"/>
     </row>
-    <row r="57" spans="1:45" hidden="1">
+    <row r="57" spans="1:45">
       <c r="A57" s="19" t="s">
         <v>75</v>
       </c>
@@ -10472,7 +10471,7 @@
       <c r="AR57" s="29"/>
       <c r="AS57" s="28"/>
     </row>
-    <row r="58" spans="1:45" hidden="1">
+    <row r="58" spans="1:45">
       <c r="A58" s="19" t="s">
         <v>75</v>
       </c>
@@ -10588,7 +10587,7 @@
       <c r="AR58" s="29"/>
       <c r="AS58" s="28"/>
     </row>
-    <row r="59" spans="1:45" hidden="1">
+    <row r="59" spans="1:45">
       <c r="A59" s="19" t="s">
         <v>75</v>
       </c>
@@ -10704,7 +10703,7 @@
       <c r="AR59" s="29"/>
       <c r="AS59" s="28"/>
     </row>
-    <row r="60" spans="1:45" hidden="1">
+    <row r="60" spans="1:45">
       <c r="A60" s="19" t="s">
         <v>75</v>
       </c>
@@ -10820,7 +10819,7 @@
       <c r="AR60" s="29"/>
       <c r="AS60" s="28"/>
     </row>
-    <row r="61" spans="1:45" hidden="1">
+    <row r="61" spans="1:45">
       <c r="A61" s="19" t="s">
         <v>75</v>
       </c>
@@ -10936,7 +10935,7 @@
       <c r="AR61" s="29"/>
       <c r="AS61" s="28"/>
     </row>
-    <row r="62" spans="1:45" hidden="1">
+    <row r="62" spans="1:45">
       <c r="A62" s="19" t="s">
         <v>75</v>
       </c>
@@ -11052,7 +11051,7 @@
       <c r="AR62" s="29"/>
       <c r="AS62" s="28"/>
     </row>
-    <row r="63" spans="1:45" hidden="1">
+    <row r="63" spans="1:45">
       <c r="A63" s="19" t="s">
         <v>75</v>
       </c>
@@ -11168,7 +11167,7 @@
       <c r="AR63" s="29"/>
       <c r="AS63" s="28"/>
     </row>
-    <row r="64" spans="1:45" hidden="1">
+    <row r="64" spans="1:45">
       <c r="A64" s="19" t="s">
         <v>85</v>
       </c>
@@ -11268,7 +11267,7 @@
       <c r="AR64" s="29"/>
       <c r="AS64" s="28"/>
     </row>
-    <row r="65" spans="1:45" hidden="1">
+    <row r="65" spans="1:45">
       <c r="A65" s="19" t="s">
         <v>85</v>
       </c>
@@ -11368,7 +11367,7 @@
       <c r="AR65" s="29"/>
       <c r="AS65" s="28"/>
     </row>
-    <row r="66" spans="1:45" hidden="1">
+    <row r="66" spans="1:45">
       <c r="A66" s="19" t="s">
         <v>85</v>
       </c>
@@ -11468,7 +11467,7 @@
       <c r="AR66" s="29"/>
       <c r="AS66" s="28"/>
     </row>
-    <row r="67" spans="1:45" hidden="1">
+    <row r="67" spans="1:45">
       <c r="A67" s="19" t="s">
         <v>85</v>
       </c>
@@ -11568,7 +11567,7 @@
       <c r="AR67" s="29"/>
       <c r="AS67" s="28"/>
     </row>
-    <row r="68" spans="1:45" hidden="1">
+    <row r="68" spans="1:45">
       <c r="A68" s="19" t="s">
         <v>85</v>
       </c>
@@ -11668,7 +11667,7 @@
       <c r="AR68" s="29"/>
       <c r="AS68" s="28"/>
     </row>
-    <row r="69" spans="1:45" hidden="1">
+    <row r="69" spans="1:45">
       <c r="A69" s="19" t="s">
         <v>85</v>
       </c>
@@ -11768,7 +11767,7 @@
       <c r="AR69" s="29"/>
       <c r="AS69" s="28"/>
     </row>
-    <row r="70" spans="1:45" hidden="1">
+    <row r="70" spans="1:45">
       <c r="A70" s="19" t="s">
         <v>91</v>
       </c>
@@ -11876,7 +11875,7 @@
       <c r="AR70" s="29"/>
       <c r="AS70" s="28"/>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" hidden="1">
+    <row r="71" spans="1:45" s="31" customFormat="1">
       <c r="A71" s="19" t="s">
         <v>91</v>
       </c>
@@ -11984,7 +11983,7 @@
       <c r="AR71" s="29"/>
       <c r="AS71" s="28"/>
     </row>
-    <row r="72" spans="1:45" hidden="1">
+    <row r="72" spans="1:45">
       <c r="A72" s="19" t="s">
         <v>97</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="AR72" s="29"/>
       <c r="AS72" s="28"/>
     </row>
-    <row r="73" spans="1:45" hidden="1">
+    <row r="73" spans="1:45">
       <c r="A73" s="19" t="s">
         <v>97</v>
       </c>
@@ -12182,7 +12181,7 @@
       <c r="AR73" s="29"/>
       <c r="AS73" s="28"/>
     </row>
-    <row r="74" spans="1:45" hidden="1">
+    <row r="74" spans="1:45">
       <c r="A74" s="19" t="s">
         <v>97</v>
       </c>
@@ -12405,7 +12404,7 @@
       <c r="AR75" s="29"/>
       <c r="AS75" s="28"/>
     </row>
-    <row r="76" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="76" spans="1:45" s="20" customFormat="1">
       <c r="A76" s="19" t="s">
         <v>104</v>
       </c>
@@ -12529,7 +12528,7 @@
       <c r="AR76" s="29"/>
       <c r="AS76" s="28"/>
     </row>
-    <row r="77" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="77" spans="1:45" s="20" customFormat="1">
       <c r="A77" s="19" t="s">
         <v>104</v>
       </c>
@@ -14141,7 +14140,7 @@
       <c r="AR89" s="29"/>
       <c r="AS89" s="28"/>
     </row>
-    <row r="90" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="90" spans="1:45" s="20" customFormat="1">
       <c r="A90" s="19" t="s">
         <v>104</v>
       </c>
@@ -14265,7 +14264,7 @@
       <c r="AR90" s="29"/>
       <c r="AS90" s="28"/>
     </row>
-    <row r="91" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="91" spans="1:45" s="20" customFormat="1">
       <c r="A91" s="19" t="s">
         <v>104</v>
       </c>
@@ -15753,7 +15752,7 @@
       <c r="AR102" s="29"/>
       <c r="AS102" s="28"/>
     </row>
-    <row r="103" spans="1:45" ht="16.5" hidden="1">
+    <row r="103" spans="1:45" ht="16.5">
       <c r="A103" s="19" t="s">
         <v>123</v>
       </c>
@@ -15868,7 +15867,7 @@
       <c r="AR103" s="29"/>
       <c r="AS103" s="28"/>
     </row>
-    <row r="104" spans="1:45" ht="16.5" hidden="1">
+    <row r="104" spans="1:45" ht="16.5">
       <c r="A104" s="19" t="s">
         <v>123</v>
       </c>
@@ -15981,7 +15980,7 @@
       <c r="AR104" s="29"/>
       <c r="AS104" s="28"/>
     </row>
-    <row r="105" spans="1:45" ht="16.5" hidden="1">
+    <row r="105" spans="1:45" ht="16.5">
       <c r="A105" s="19" t="s">
         <v>123</v>
       </c>
@@ -16094,7 +16093,7 @@
       <c r="AR105" s="29"/>
       <c r="AS105" s="28"/>
     </row>
-    <row r="106" spans="1:45" ht="16.5" hidden="1">
+    <row r="106" spans="1:45" ht="16.5">
       <c r="A106" s="19" t="s">
         <v>123</v>
       </c>
@@ -16209,7 +16208,7 @@
       <c r="AR106" s="29"/>
       <c r="AS106" s="28"/>
     </row>
-    <row r="107" spans="1:45" ht="16.5" hidden="1">
+    <row r="107" spans="1:45" ht="16.5">
       <c r="A107" s="19" t="s">
         <v>123</v>
       </c>
@@ -16324,7 +16323,7 @@
       <c r="AR107" s="29"/>
       <c r="AS107" s="28"/>
     </row>
-    <row r="108" spans="1:45" ht="16.5" hidden="1">
+    <row r="108" spans="1:45" ht="16.5">
       <c r="A108" s="19" t="s">
         <v>123</v>
       </c>
@@ -16439,7 +16438,7 @@
       <c r="AR108" s="29"/>
       <c r="AS108" s="28"/>
     </row>
-    <row r="109" spans="1:45" ht="16.5" hidden="1">
+    <row r="109" spans="1:45" ht="16.5">
       <c r="A109" s="19" t="s">
         <v>123</v>
       </c>
@@ -16554,7 +16553,7 @@
       <c r="AR109" s="29"/>
       <c r="AS109" s="28"/>
     </row>
-    <row r="110" spans="1:45" hidden="1">
+    <row r="110" spans="1:45">
       <c r="A110" s="19" t="s">
         <v>125</v>
       </c>
@@ -16675,7 +16674,7 @@
       <c r="AR110" s="29"/>
       <c r="AS110" s="28"/>
     </row>
-    <row r="111" spans="1:45" hidden="1">
+    <row r="111" spans="1:45">
       <c r="A111" s="19" t="s">
         <v>129</v>
       </c>
@@ -16800,7 +16799,7 @@
       <c r="AR111" s="29"/>
       <c r="AS111" s="28"/>
     </row>
-    <row r="112" spans="1:45" hidden="1">
+    <row r="112" spans="1:45">
       <c r="A112" s="19" t="s">
         <v>129</v>
       </c>
@@ -16925,7 +16924,7 @@
       <c r="AR112" s="29"/>
       <c r="AS112" s="28"/>
     </row>
-    <row r="113" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="113" spans="1:45" s="20" customFormat="1">
       <c r="A113" s="19" t="s">
         <v>138</v>
       </c>
@@ -17037,7 +17036,7 @@
       <c r="AR113" s="29"/>
       <c r="AS113" s="28"/>
     </row>
-    <row r="114" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="114" spans="1:45" s="20" customFormat="1">
       <c r="A114" s="19" t="s">
         <v>138</v>
       </c>
@@ -17149,7 +17148,7 @@
       <c r="AR114" s="29"/>
       <c r="AS114" s="28"/>
     </row>
-    <row r="115" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="115" spans="1:45" s="20" customFormat="1">
       <c r="A115" s="19" t="s">
         <v>138</v>
       </c>
@@ -17261,7 +17260,7 @@
       <c r="AR115" s="29"/>
       <c r="AS115" s="28"/>
     </row>
-    <row r="116" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="116" spans="1:45" s="20" customFormat="1">
       <c r="A116" s="19" t="s">
         <v>138</v>
       </c>
@@ -17373,7 +17372,7 @@
       <c r="AR116" s="29"/>
       <c r="AS116" s="28"/>
     </row>
-    <row r="117" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="117" spans="1:45" s="20" customFormat="1">
       <c r="A117" s="19" t="s">
         <v>138</v>
       </c>
@@ -17485,7 +17484,7 @@
       <c r="AR117" s="29"/>
       <c r="AS117" s="28"/>
     </row>
-    <row r="118" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="118" spans="1:45" s="20" customFormat="1">
       <c r="A118" s="19" t="s">
         <v>138</v>
       </c>
@@ -17597,7 +17596,7 @@
       <c r="AR118" s="29"/>
       <c r="AS118" s="28"/>
     </row>
-    <row r="119" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="119" spans="1:45" s="20" customFormat="1">
       <c r="A119" s="19" t="s">
         <v>138</v>
       </c>
@@ -17709,7 +17708,7 @@
       <c r="AR119" s="29"/>
       <c r="AS119" s="28"/>
     </row>
-    <row r="120" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="120" spans="1:45" s="20" customFormat="1">
       <c r="A120" s="19" t="s">
         <v>138</v>
       </c>
@@ -17821,7 +17820,7 @@
       <c r="AR120" s="29"/>
       <c r="AS120" s="28"/>
     </row>
-    <row r="121" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="121" spans="1:45" s="20" customFormat="1">
       <c r="A121" s="19" t="s">
         <v>138</v>
       </c>
@@ -17933,7 +17932,7 @@
       <c r="AR121" s="29"/>
       <c r="AS121" s="28"/>
     </row>
-    <row r="122" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="122" spans="1:45" s="20" customFormat="1">
       <c r="A122" s="19" t="s">
         <v>138</v>
       </c>
@@ -18045,7 +18044,7 @@
       <c r="AR122" s="29"/>
       <c r="AS122" s="28"/>
     </row>
-    <row r="123" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="123" spans="1:45" s="20" customFormat="1">
       <c r="A123" s="19" t="s">
         <v>138</v>
       </c>
@@ -18157,7 +18156,7 @@
       <c r="AR123" s="29"/>
       <c r="AS123" s="28"/>
     </row>
-    <row r="124" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="124" spans="1:45" s="20" customFormat="1">
       <c r="A124" s="19" t="s">
         <v>138</v>
       </c>
@@ -18269,7 +18268,7 @@
       <c r="AR124" s="29"/>
       <c r="AS124" s="28"/>
     </row>
-    <row r="125" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="125" spans="1:45" s="20" customFormat="1">
       <c r="A125" s="19" t="s">
         <v>157</v>
       </c>
@@ -18381,7 +18380,7 @@
       <c r="AR125" s="29"/>
       <c r="AS125" s="28"/>
     </row>
-    <row r="126" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="126" spans="1:45" s="20" customFormat="1">
       <c r="A126" s="19" t="s">
         <v>157</v>
       </c>
@@ -18493,7 +18492,7 @@
       <c r="AR126" s="29"/>
       <c r="AS126" s="28"/>
     </row>
-    <row r="127" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="127" spans="1:45" s="20" customFormat="1">
       <c r="A127" s="19" t="s">
         <v>157</v>
       </c>
@@ -18605,7 +18604,7 @@
       <c r="AR127" s="29"/>
       <c r="AS127" s="28"/>
     </row>
-    <row r="128" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="128" spans="1:45" s="20" customFormat="1">
       <c r="A128" s="19" t="s">
         <v>157</v>
       </c>
@@ -18717,7 +18716,7 @@
       <c r="AR128" s="29"/>
       <c r="AS128" s="28"/>
     </row>
-    <row r="129" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="129" spans="1:45" s="20" customFormat="1">
       <c r="A129" s="19" t="s">
         <v>157</v>
       </c>
@@ -18829,7 +18828,7 @@
       <c r="AR129" s="29"/>
       <c r="AS129" s="28"/>
     </row>
-    <row r="130" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="130" spans="1:45" s="20" customFormat="1">
       <c r="A130" s="19" t="s">
         <v>157</v>
       </c>
@@ -18941,7 +18940,7 @@
       <c r="AR130" s="29"/>
       <c r="AS130" s="28"/>
     </row>
-    <row r="131" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="131" spans="1:45" s="20" customFormat="1">
       <c r="A131" s="19" t="s">
         <v>157</v>
       </c>
@@ -19053,7 +19052,7 @@
       <c r="AR131" s="29"/>
       <c r="AS131" s="28"/>
     </row>
-    <row r="132" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="132" spans="1:45" s="20" customFormat="1">
       <c r="A132" s="19" t="s">
         <v>157</v>
       </c>
@@ -19165,7 +19164,7 @@
       <c r="AR132" s="29"/>
       <c r="AS132" s="28"/>
     </row>
-    <row r="133" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="133" spans="1:45" s="20" customFormat="1">
       <c r="A133" s="19" t="s">
         <v>157</v>
       </c>
@@ -19277,7 +19276,7 @@
       <c r="AR133" s="29"/>
       <c r="AS133" s="28"/>
     </row>
-    <row r="134" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="134" spans="1:45" s="20" customFormat="1">
       <c r="A134" s="19" t="s">
         <v>170</v>
       </c>
@@ -19397,7 +19396,7 @@
       <c r="AR134" s="29"/>
       <c r="AS134" s="28"/>
     </row>
-    <row r="135" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="135" spans="1:45" s="20" customFormat="1">
       <c r="A135" s="19" t="s">
         <v>170</v>
       </c>
@@ -19517,7 +19516,7 @@
       <c r="AR135" s="29"/>
       <c r="AS135" s="28"/>
     </row>
-    <row r="136" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="136" spans="1:45" s="20" customFormat="1">
       <c r="A136" s="19" t="s">
         <v>170</v>
       </c>
@@ -19637,7 +19636,7 @@
       <c r="AR136" s="29"/>
       <c r="AS136" s="28"/>
     </row>
-    <row r="137" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="137" spans="1:45" s="20" customFormat="1">
       <c r="A137" s="19" t="s">
         <v>170</v>
       </c>
@@ -19757,7 +19756,7 @@
       <c r="AR137" s="29"/>
       <c r="AS137" s="28"/>
     </row>
-    <row r="138" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="138" spans="1:45" s="20" customFormat="1">
       <c r="A138" s="19" t="s">
         <v>170</v>
       </c>
@@ -19877,7 +19876,7 @@
       <c r="AR138" s="29"/>
       <c r="AS138" s="28"/>
     </row>
-    <row r="139" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="139" spans="1:45" s="20" customFormat="1">
       <c r="A139" s="19" t="s">
         <v>170</v>
       </c>
@@ -19997,7 +19996,7 @@
       <c r="AR139" s="29"/>
       <c r="AS139" s="28"/>
     </row>
-    <row r="140" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="140" spans="1:45" s="20" customFormat="1">
       <c r="A140" s="19" t="s">
         <v>170</v>
       </c>
@@ -20117,7 +20116,7 @@
       <c r="AR140" s="29"/>
       <c r="AS140" s="28"/>
     </row>
-    <row r="141" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="141" spans="1:45" s="20" customFormat="1">
       <c r="A141" s="19" t="s">
         <v>170</v>
       </c>
@@ -20237,7 +20236,7 @@
       <c r="AR141" s="29"/>
       <c r="AS141" s="28"/>
     </row>
-    <row r="142" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="142" spans="1:45" s="20" customFormat="1">
       <c r="A142" s="19" t="s">
         <v>170</v>
       </c>
@@ -20357,7 +20356,7 @@
       <c r="AR142" s="29"/>
       <c r="AS142" s="28"/>
     </row>
-    <row r="143" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="143" spans="1:45" s="20" customFormat="1">
       <c r="A143" s="19" t="s">
         <v>170</v>
       </c>
@@ -20477,7 +20476,7 @@
       <c r="AR143" s="29"/>
       <c r="AS143" s="28"/>
     </row>
-    <row r="144" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="144" spans="1:45" s="20" customFormat="1">
       <c r="A144" s="19" t="s">
         <v>170</v>
       </c>
@@ -20597,7 +20596,7 @@
       <c r="AR144" s="29"/>
       <c r="AS144" s="28"/>
     </row>
-    <row r="145" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="145" spans="1:45" s="20" customFormat="1">
       <c r="A145" s="19" t="s">
         <v>170</v>
       </c>
@@ -20694,7 +20693,7 @@
       <c r="AR145" s="29"/>
       <c r="AS145" s="28"/>
     </row>
-    <row r="146" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="146" spans="1:45" s="20" customFormat="1">
       <c r="A146" s="19" t="s">
         <v>170</v>
       </c>
@@ -20791,7 +20790,7 @@
       <c r="AR146" s="29"/>
       <c r="AS146" s="28"/>
     </row>
-    <row r="147" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="147" spans="1:45" s="20" customFormat="1">
       <c r="A147" s="19" t="s">
         <v>190</v>
       </c>
@@ -20892,7 +20891,7 @@
       <c r="AR147" s="29"/>
       <c r="AS147" s="28"/>
     </row>
-    <row r="148" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="148" spans="1:45" s="20" customFormat="1">
       <c r="A148" s="19" t="s">
         <v>195</v>
       </c>
@@ -21004,7 +21003,7 @@
       <c r="AR148" s="29"/>
       <c r="AS148" s="28"/>
     </row>
-    <row r="149" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="149" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A149" s="19" t="s">
         <v>201</v>
       </c>
@@ -21092,7 +21091,7 @@
       <c r="AR149" s="29"/>
       <c r="AS149" s="28"/>
     </row>
-    <row r="150" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="150" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A150" s="19" t="s">
         <v>201</v>
       </c>
@@ -21180,7 +21179,7 @@
       <c r="AR150" s="29"/>
       <c r="AS150" s="28"/>
     </row>
-    <row r="151" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="151" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A151" s="19" t="s">
         <v>201</v>
       </c>
@@ -21268,7 +21267,7 @@
       <c r="AR151" s="29"/>
       <c r="AS151" s="28"/>
     </row>
-    <row r="152" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="152" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A152" s="19" t="s">
         <v>201</v>
       </c>
@@ -21356,7 +21355,7 @@
       <c r="AR152" s="29"/>
       <c r="AS152" s="28"/>
     </row>
-    <row r="153" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="153" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A153" s="19" t="s">
         <v>201</v>
       </c>
@@ -21444,7 +21443,7 @@
       <c r="AR153" s="29"/>
       <c r="AS153" s="28"/>
     </row>
-    <row r="154" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="154" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A154" s="19" t="s">
         <v>201</v>
       </c>
@@ -21532,7 +21531,7 @@
       <c r="AR154" s="29"/>
       <c r="AS154" s="28"/>
     </row>
-    <row r="155" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="155" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A155" s="19" t="s">
         <v>201</v>
       </c>
@@ -21620,7 +21619,7 @@
       <c r="AR155" s="29"/>
       <c r="AS155" s="28"/>
     </row>
-    <row r="156" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="156" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A156" s="19" t="s">
         <v>201</v>
       </c>
@@ -21708,7 +21707,7 @@
       <c r="AR156" s="29"/>
       <c r="AS156" s="28"/>
     </row>
-    <row r="157" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="157" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A157" s="19" t="s">
         <v>201</v>
       </c>
@@ -21796,7 +21795,7 @@
       <c r="AR157" s="29"/>
       <c r="AS157" s="28"/>
     </row>
-    <row r="158" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="158" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A158" s="19" t="s">
         <v>201</v>
       </c>
@@ -21884,7 +21883,7 @@
       <c r="AR158" s="29"/>
       <c r="AS158" s="28"/>
     </row>
-    <row r="159" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="159" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A159" s="19" t="s">
         <v>201</v>
       </c>
@@ -21972,7 +21971,7 @@
       <c r="AR159" s="29"/>
       <c r="AS159" s="28"/>
     </row>
-    <row r="160" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="160" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A160" s="19" t="s">
         <v>201</v>
       </c>
@@ -22060,7 +22059,7 @@
       <c r="AR160" s="29"/>
       <c r="AS160" s="28"/>
     </row>
-    <row r="161" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="161" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A161" s="19" t="s">
         <v>201</v>
       </c>
@@ -22148,7 +22147,7 @@
       <c r="AR161" s="29"/>
       <c r="AS161" s="28"/>
     </row>
-    <row r="162" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="162" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A162" s="19" t="s">
         <v>201</v>
       </c>
@@ -22236,7 +22235,7 @@
       <c r="AR162" s="29"/>
       <c r="AS162" s="28"/>
     </row>
-    <row r="163" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="163" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A163" s="19" t="s">
         <v>201</v>
       </c>
@@ -22324,7 +22323,7 @@
       <c r="AR163" s="29"/>
       <c r="AS163" s="28"/>
     </row>
-    <row r="164" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="164" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A164" s="19" t="s">
         <v>201</v>
       </c>
@@ -22412,7 +22411,7 @@
       <c r="AR164" s="29"/>
       <c r="AS164" s="28"/>
     </row>
-    <row r="165" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="165" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A165" s="19" t="s">
         <v>201</v>
       </c>
@@ -22500,7 +22499,7 @@
       <c r="AR165" s="29"/>
       <c r="AS165" s="28"/>
     </row>
-    <row r="166" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="166" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A166" s="19" t="s">
         <v>201</v>
       </c>
@@ -22588,7 +22587,7 @@
       <c r="AR166" s="29"/>
       <c r="AS166" s="28"/>
     </row>
-    <row r="167" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="167" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A167" s="19" t="s">
         <v>201</v>
       </c>
@@ -22676,7 +22675,7 @@
       <c r="AR167" s="29"/>
       <c r="AS167" s="28"/>
     </row>
-    <row r="168" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="168" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A168" s="19" t="s">
         <v>201</v>
       </c>
@@ -22764,7 +22763,7 @@
       <c r="AR168" s="29"/>
       <c r="AS168" s="28"/>
     </row>
-    <row r="169" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="169" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A169" s="19" t="s">
         <v>201</v>
       </c>
@@ -22852,7 +22851,7 @@
       <c r="AR169" s="29"/>
       <c r="AS169" s="28"/>
     </row>
-    <row r="170" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="170" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A170" s="19" t="s">
         <v>201</v>
       </c>
@@ -22940,7 +22939,7 @@
       <c r="AR170" s="29"/>
       <c r="AS170" s="28"/>
     </row>
-    <row r="171" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="171" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A171" s="19" t="s">
         <v>201</v>
       </c>
@@ -23028,7 +23027,7 @@
       <c r="AR171" s="29"/>
       <c r="AS171" s="28"/>
     </row>
-    <row r="172" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="172" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A172" s="19" t="s">
         <v>201</v>
       </c>
@@ -23116,7 +23115,7 @@
       <c r="AR172" s="29"/>
       <c r="AS172" s="28"/>
     </row>
-    <row r="173" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="173" spans="1:45" s="20" customFormat="1">
       <c r="A173" s="19" t="s">
         <v>201</v>
       </c>
@@ -23204,7 +23203,7 @@
       <c r="AR173" s="29"/>
       <c r="AS173" s="28"/>
     </row>
-    <row r="174" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="174" spans="1:45" s="20" customFormat="1">
       <c r="A174" s="19" t="s">
         <v>201</v>
       </c>
@@ -23292,7 +23291,7 @@
       <c r="AR174" s="29"/>
       <c r="AS174" s="28"/>
     </row>
-    <row r="175" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="175" spans="1:45" s="20" customFormat="1">
       <c r="A175" s="19" t="s">
         <v>201</v>
       </c>
@@ -23380,7 +23379,7 @@
       <c r="AR175" s="29"/>
       <c r="AS175" s="28"/>
     </row>
-    <row r="176" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="176" spans="1:45" s="20" customFormat="1">
       <c r="A176" s="19" t="s">
         <v>201</v>
       </c>
@@ -23468,7 +23467,7 @@
       <c r="AR176" s="29"/>
       <c r="AS176" s="28"/>
     </row>
-    <row r="177" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="177" spans="1:45" s="20" customFormat="1">
       <c r="A177" s="19" t="s">
         <v>201</v>
       </c>
@@ -23556,7 +23555,7 @@
       <c r="AR177" s="29"/>
       <c r="AS177" s="28"/>
     </row>
-    <row r="178" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="178" spans="1:45" s="20" customFormat="1">
       <c r="A178" s="19" t="s">
         <v>201</v>
       </c>
@@ -23644,7 +23643,7 @@
       <c r="AR178" s="29"/>
       <c r="AS178" s="28"/>
     </row>
-    <row r="179" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="179" spans="1:45" s="20" customFormat="1">
       <c r="A179" s="19" t="s">
         <v>201</v>
       </c>
@@ -23732,7 +23731,7 @@
       <c r="AR179" s="29"/>
       <c r="AS179" s="28"/>
     </row>
-    <row r="180" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="180" spans="1:45" s="20" customFormat="1">
       <c r="A180" s="19" t="s">
         <v>201</v>
       </c>
@@ -23820,7 +23819,7 @@
       <c r="AR180" s="29"/>
       <c r="AS180" s="28"/>
     </row>
-    <row r="181" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="181" spans="1:45" s="20" customFormat="1">
       <c r="A181" s="19" t="s">
         <v>201</v>
       </c>
@@ -23908,7 +23907,7 @@
       <c r="AR181" s="29"/>
       <c r="AS181" s="28"/>
     </row>
-    <row r="182" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="182" spans="1:45" s="20" customFormat="1">
       <c r="A182" s="19" t="s">
         <v>201</v>
       </c>
@@ -23996,7 +23995,7 @@
       <c r="AR182" s="29"/>
       <c r="AS182" s="28"/>
     </row>
-    <row r="183" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="183" spans="1:45" s="20" customFormat="1">
       <c r="A183" s="19" t="s">
         <v>201</v>
       </c>
@@ -24084,7 +24083,7 @@
       <c r="AR183" s="29"/>
       <c r="AS183" s="28"/>
     </row>
-    <row r="184" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="184" spans="1:45" s="20" customFormat="1">
       <c r="A184" s="19" t="s">
         <v>201</v>
       </c>
@@ -24172,7 +24171,7 @@
       <c r="AR184" s="29"/>
       <c r="AS184" s="28"/>
     </row>
-    <row r="185" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="185" spans="1:45" s="20" customFormat="1">
       <c r="A185" s="19" t="s">
         <v>201</v>
       </c>
@@ -24260,7 +24259,7 @@
       <c r="AR185" s="29"/>
       <c r="AS185" s="28"/>
     </row>
-    <row r="186" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="186" spans="1:45" s="20" customFormat="1">
       <c r="A186" s="19" t="s">
         <v>201</v>
       </c>
@@ -24348,7 +24347,7 @@
       <c r="AR186" s="29"/>
       <c r="AS186" s="28"/>
     </row>
-    <row r="187" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="187" spans="1:45" s="20" customFormat="1">
       <c r="A187" s="19" t="s">
         <v>201</v>
       </c>
@@ -24436,7 +24435,7 @@
       <c r="AR187" s="29"/>
       <c r="AS187" s="28"/>
     </row>
-    <row r="188" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="188" spans="1:45" s="20" customFormat="1">
       <c r="A188" s="19" t="s">
         <v>201</v>
       </c>
@@ -24524,7 +24523,7 @@
       <c r="AR188" s="29"/>
       <c r="AS188" s="28"/>
     </row>
-    <row r="189" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="189" spans="1:45" s="20" customFormat="1">
       <c r="A189" s="19" t="s">
         <v>201</v>
       </c>
@@ -24612,7 +24611,7 @@
       <c r="AR189" s="29"/>
       <c r="AS189" s="28"/>
     </row>
-    <row r="190" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="190" spans="1:45" s="20" customFormat="1">
       <c r="A190" s="19" t="s">
         <v>201</v>
       </c>
@@ -24700,7 +24699,7 @@
       <c r="AR190" s="29"/>
       <c r="AS190" s="28"/>
     </row>
-    <row r="191" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="191" spans="1:45" s="20" customFormat="1">
       <c r="A191" s="19" t="s">
         <v>201</v>
       </c>
@@ -24788,7 +24787,7 @@
       <c r="AR191" s="29"/>
       <c r="AS191" s="28"/>
     </row>
-    <row r="192" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="192" spans="1:45" s="20" customFormat="1">
       <c r="A192" s="19" t="s">
         <v>201</v>
       </c>
@@ -24876,7 +24875,7 @@
       <c r="AR192" s="29"/>
       <c r="AS192" s="28"/>
     </row>
-    <row r="193" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="193" spans="1:45" s="20" customFormat="1">
       <c r="A193" s="19" t="s">
         <v>201</v>
       </c>
@@ -24964,7 +24963,7 @@
       <c r="AR193" s="29"/>
       <c r="AS193" s="28"/>
     </row>
-    <row r="194" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="194" spans="1:45" s="20" customFormat="1">
       <c r="A194" s="19" t="s">
         <v>201</v>
       </c>
@@ -25052,7 +25051,7 @@
       <c r="AR194" s="29"/>
       <c r="AS194" s="28"/>
     </row>
-    <row r="195" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="195" spans="1:45" s="20" customFormat="1">
       <c r="A195" s="19" t="s">
         <v>201</v>
       </c>
@@ -25140,7 +25139,7 @@
       <c r="AR195" s="29"/>
       <c r="AS195" s="28"/>
     </row>
-    <row r="196" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="196" spans="1:45" s="20" customFormat="1">
       <c r="A196" s="19" t="s">
         <v>201</v>
       </c>
@@ -25228,7 +25227,7 @@
       <c r="AR196" s="29"/>
       <c r="AS196" s="28"/>
     </row>
-    <row r="197" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="197" spans="1:45" s="20" customFormat="1">
       <c r="A197" s="19" t="s">
         <v>201</v>
       </c>
@@ -25316,7 +25315,7 @@
       <c r="AR197" s="29"/>
       <c r="AS197" s="28"/>
     </row>
-    <row r="198" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="198" spans="1:45" s="20" customFormat="1">
       <c r="A198" s="19" t="s">
         <v>201</v>
       </c>
@@ -25404,7 +25403,7 @@
       <c r="AR198" s="29"/>
       <c r="AS198" s="28"/>
     </row>
-    <row r="199" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="199" spans="1:45" s="20" customFormat="1">
       <c r="A199" s="19" t="s">
         <v>201</v>
       </c>
@@ -25492,7 +25491,7 @@
       <c r="AR199" s="29"/>
       <c r="AS199" s="28"/>
     </row>
-    <row r="200" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="200" spans="1:45" s="20" customFormat="1">
       <c r="A200" s="19" t="s">
         <v>201</v>
       </c>
@@ -25580,7 +25579,7 @@
       <c r="AR200" s="29"/>
       <c r="AS200" s="28"/>
     </row>
-    <row r="201" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="201" spans="1:45" s="20" customFormat="1">
       <c r="A201" s="19" t="s">
         <v>201</v>
       </c>
@@ -25668,7 +25667,7 @@
       <c r="AR201" s="29"/>
       <c r="AS201" s="28"/>
     </row>
-    <row r="202" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="202" spans="1:45" s="20" customFormat="1">
       <c r="A202" s="19" t="s">
         <v>201</v>
       </c>
@@ -25756,7 +25755,7 @@
       <c r="AR202" s="29"/>
       <c r="AS202" s="28"/>
     </row>
-    <row r="203" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="203" spans="1:45" s="20" customFormat="1">
       <c r="A203" s="19" t="s">
         <v>201</v>
       </c>
@@ -25844,7 +25843,7 @@
       <c r="AR203" s="29"/>
       <c r="AS203" s="28"/>
     </row>
-    <row r="204" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="204" spans="1:45" s="20" customFormat="1">
       <c r="A204" s="19" t="s">
         <v>201</v>
       </c>
@@ -25932,7 +25931,7 @@
       <c r="AR204" s="29"/>
       <c r="AS204" s="28"/>
     </row>
-    <row r="205" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="205" spans="1:45" s="20" customFormat="1">
       <c r="A205" s="19" t="s">
         <v>201</v>
       </c>
@@ -26020,7 +26019,7 @@
       <c r="AR205" s="29"/>
       <c r="AS205" s="28"/>
     </row>
-    <row r="206" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="206" spans="1:45" s="20" customFormat="1">
       <c r="A206" s="19" t="s">
         <v>201</v>
       </c>
@@ -26108,7 +26107,7 @@
       <c r="AR206" s="29"/>
       <c r="AS206" s="28"/>
     </row>
-    <row r="207" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="207" spans="1:45" s="20" customFormat="1">
       <c r="A207" s="19" t="s">
         <v>201</v>
       </c>
@@ -26196,7 +26195,7 @@
       <c r="AR207" s="29"/>
       <c r="AS207" s="28"/>
     </row>
-    <row r="208" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="208" spans="1:45" s="20" customFormat="1">
       <c r="A208" s="19" t="s">
         <v>201</v>
       </c>
@@ -26284,7 +26283,7 @@
       <c r="AR208" s="29"/>
       <c r="AS208" s="28"/>
     </row>
-    <row r="209" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="209" spans="1:45" s="20" customFormat="1">
       <c r="A209" s="19" t="s">
         <v>201</v>
       </c>
@@ -26372,7 +26371,7 @@
       <c r="AR209" s="29"/>
       <c r="AS209" s="28"/>
     </row>
-    <row r="210" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="210" spans="1:45" s="20" customFormat="1">
       <c r="A210" s="19" t="s">
         <v>201</v>
       </c>
@@ -26460,7 +26459,7 @@
       <c r="AR210" s="29"/>
       <c r="AS210" s="28"/>
     </row>
-    <row r="211" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="211" spans="1:45" s="20" customFormat="1">
       <c r="A211" s="19" t="s">
         <v>201</v>
       </c>
@@ -26548,7 +26547,7 @@
       <c r="AR211" s="29"/>
       <c r="AS211" s="28"/>
     </row>
-    <row r="212" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="212" spans="1:45" s="20" customFormat="1">
       <c r="A212" s="19" t="s">
         <v>201</v>
       </c>
@@ -26636,7 +26635,7 @@
       <c r="AR212" s="29"/>
       <c r="AS212" s="28"/>
     </row>
-    <row r="213" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="213" spans="1:45" s="20" customFormat="1">
       <c r="A213" s="19" t="s">
         <v>201</v>
       </c>
@@ -26724,7 +26723,7 @@
       <c r="AR213" s="29"/>
       <c r="AS213" s="28"/>
     </row>
-    <row r="214" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="214" spans="1:45" s="20" customFormat="1">
       <c r="A214" s="19" t="s">
         <v>201</v>
       </c>
@@ -26812,7 +26811,7 @@
       <c r="AR214" s="29"/>
       <c r="AS214" s="28"/>
     </row>
-    <row r="215" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="215" spans="1:45" s="20" customFormat="1">
       <c r="A215" s="19" t="s">
         <v>201</v>
       </c>
@@ -26900,7 +26899,7 @@
       <c r="AR215" s="29"/>
       <c r="AS215" s="28"/>
     </row>
-    <row r="216" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="216" spans="1:45" s="20" customFormat="1">
       <c r="A216" s="19" t="s">
         <v>201</v>
       </c>
@@ -26988,7 +26987,7 @@
       <c r="AR216" s="29"/>
       <c r="AS216" s="28"/>
     </row>
-    <row r="217" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="217" spans="1:45" s="20" customFormat="1">
       <c r="A217" s="19" t="s">
         <v>201</v>
       </c>
@@ -27076,7 +27075,7 @@
       <c r="AR217" s="29"/>
       <c r="AS217" s="28"/>
     </row>
-    <row r="218" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="218" spans="1:45" s="20" customFormat="1">
       <c r="A218" s="19" t="s">
         <v>201</v>
       </c>
@@ -27164,7 +27163,7 @@
       <c r="AR218" s="29"/>
       <c r="AS218" s="28"/>
     </row>
-    <row r="219" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="219" spans="1:45" s="20" customFormat="1">
       <c r="A219" s="19" t="s">
         <v>201</v>
       </c>
@@ -27252,7 +27251,7 @@
       <c r="AR219" s="29"/>
       <c r="AS219" s="28"/>
     </row>
-    <row r="220" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="220" spans="1:45" s="20" customFormat="1">
       <c r="A220" s="19" t="s">
         <v>201</v>
       </c>
@@ -27340,7 +27339,7 @@
       <c r="AR220" s="29"/>
       <c r="AS220" s="28"/>
     </row>
-    <row r="221" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="221" spans="1:45" s="20" customFormat="1">
       <c r="A221" s="19" t="s">
         <v>201</v>
       </c>
@@ -27428,7 +27427,7 @@
       <c r="AR221" s="29"/>
       <c r="AS221" s="28"/>
     </row>
-    <row r="222" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="222" spans="1:45" s="20" customFormat="1">
       <c r="A222" s="19" t="s">
         <v>201</v>
       </c>
@@ -27516,7 +27515,7 @@
       <c r="AR222" s="29"/>
       <c r="AS222" s="28"/>
     </row>
-    <row r="223" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="223" spans="1:45" s="20" customFormat="1">
       <c r="A223" s="19" t="s">
         <v>201</v>
       </c>
@@ -27604,7 +27603,7 @@
       <c r="AR223" s="29"/>
       <c r="AS223" s="28"/>
     </row>
-    <row r="224" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="224" spans="1:45" s="20" customFormat="1">
       <c r="A224" s="19" t="s">
         <v>201</v>
       </c>
@@ -27692,7 +27691,7 @@
       <c r="AR224" s="29"/>
       <c r="AS224" s="28"/>
     </row>
-    <row r="225" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="225" spans="1:45" s="20" customFormat="1">
       <c r="A225" s="19" t="s">
         <v>201</v>
       </c>
@@ -27780,7 +27779,7 @@
       <c r="AR225" s="29"/>
       <c r="AS225" s="28"/>
     </row>
-    <row r="226" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="226" spans="1:45" s="20" customFormat="1">
       <c r="A226" s="19" t="s">
         <v>201</v>
       </c>
@@ -27868,7 +27867,7 @@
       <c r="AR226" s="29"/>
       <c r="AS226" s="28"/>
     </row>
-    <row r="227" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="227" spans="1:45" s="20" customFormat="1">
       <c r="A227" s="19" t="s">
         <v>201</v>
       </c>
@@ -27956,7 +27955,7 @@
       <c r="AR227" s="29"/>
       <c r="AS227" s="28"/>
     </row>
-    <row r="228" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="228" spans="1:45" s="20" customFormat="1">
       <c r="A228" s="19" t="s">
         <v>201</v>
       </c>
@@ -28044,7 +28043,7 @@
       <c r="AR228" s="29"/>
       <c r="AS228" s="28"/>
     </row>
-    <row r="229" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="229" spans="1:45" s="20" customFormat="1">
       <c r="A229" s="19" t="s">
         <v>201</v>
       </c>
@@ -28132,7 +28131,7 @@
       <c r="AR229" s="29"/>
       <c r="AS229" s="28"/>
     </row>
-    <row r="230" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="230" spans="1:45" s="20" customFormat="1">
       <c r="A230" s="19" t="s">
         <v>201</v>
       </c>
@@ -28220,7 +28219,7 @@
       <c r="AR230" s="29"/>
       <c r="AS230" s="28"/>
     </row>
-    <row r="231" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="231" spans="1:45" s="20" customFormat="1">
       <c r="A231" s="19" t="s">
         <v>201</v>
       </c>
@@ -28308,7 +28307,7 @@
       <c r="AR231" s="29"/>
       <c r="AS231" s="28"/>
     </row>
-    <row r="232" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="232" spans="1:45" s="20" customFormat="1">
       <c r="A232" s="19" t="s">
         <v>201</v>
       </c>
@@ -28396,7 +28395,7 @@
       <c r="AR232" s="29"/>
       <c r="AS232" s="28"/>
     </row>
-    <row r="233" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="233" spans="1:45" s="20" customFormat="1">
       <c r="A233" s="19" t="s">
         <v>201</v>
       </c>
@@ -28484,7 +28483,7 @@
       <c r="AR233" s="29"/>
       <c r="AS233" s="28"/>
     </row>
-    <row r="234" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="234" spans="1:45" s="20" customFormat="1">
       <c r="A234" s="19" t="s">
         <v>201</v>
       </c>
@@ -28572,7 +28571,7 @@
       <c r="AR234" s="29"/>
       <c r="AS234" s="28"/>
     </row>
-    <row r="235" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="235" spans="1:45" s="20" customFormat="1">
       <c r="A235" s="19" t="s">
         <v>201</v>
       </c>
@@ -28660,7 +28659,7 @@
       <c r="AR235" s="29"/>
       <c r="AS235" s="28"/>
     </row>
-    <row r="236" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="236" spans="1:45" s="20" customFormat="1">
       <c r="A236" s="19" t="s">
         <v>201</v>
       </c>
@@ -28748,7 +28747,7 @@
       <c r="AR236" s="29"/>
       <c r="AS236" s="28"/>
     </row>
-    <row r="237" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="237" spans="1:45" s="20" customFormat="1">
       <c r="A237" s="19" t="s">
         <v>201</v>
       </c>
@@ -28836,7 +28835,7 @@
       <c r="AR237" s="29"/>
       <c r="AS237" s="28"/>
     </row>
-    <row r="238" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="238" spans="1:45" s="20" customFormat="1">
       <c r="A238" s="19" t="s">
         <v>201</v>
       </c>
@@ -28924,7 +28923,7 @@
       <c r="AR238" s="29"/>
       <c r="AS238" s="28"/>
     </row>
-    <row r="239" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="239" spans="1:45" s="20" customFormat="1">
       <c r="A239" s="19" t="s">
         <v>201</v>
       </c>
@@ -29012,7 +29011,7 @@
       <c r="AR239" s="29"/>
       <c r="AS239" s="28"/>
     </row>
-    <row r="240" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="240" spans="1:45" s="20" customFormat="1">
       <c r="A240" s="19" t="s">
         <v>201</v>
       </c>
@@ -29100,7 +29099,7 @@
       <c r="AR240" s="29"/>
       <c r="AS240" s="28"/>
     </row>
-    <row r="241" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="241" spans="1:45" s="20" customFormat="1">
       <c r="A241" s="19" t="s">
         <v>201</v>
       </c>
@@ -29188,7 +29187,7 @@
       <c r="AR241" s="29"/>
       <c r="AS241" s="28"/>
     </row>
-    <row r="242" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="242" spans="1:45" s="20" customFormat="1">
       <c r="A242" s="19" t="s">
         <v>201</v>
       </c>
@@ -29276,7 +29275,7 @@
       <c r="AR242" s="29"/>
       <c r="AS242" s="28"/>
     </row>
-    <row r="243" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="243" spans="1:45" s="20" customFormat="1">
       <c r="A243" s="19" t="s">
         <v>201</v>
       </c>
@@ -29364,7 +29363,7 @@
       <c r="AR243" s="29"/>
       <c r="AS243" s="28"/>
     </row>
-    <row r="244" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="244" spans="1:45" s="20" customFormat="1">
       <c r="A244" s="19" t="s">
         <v>201</v>
       </c>
@@ -29452,7 +29451,7 @@
       <c r="AR244" s="29"/>
       <c r="AS244" s="28"/>
     </row>
-    <row r="245" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="245" spans="1:45" s="20" customFormat="1">
       <c r="A245" s="19" t="s">
         <v>201</v>
       </c>
@@ -29540,7 +29539,7 @@
       <c r="AR245" s="29"/>
       <c r="AS245" s="28"/>
     </row>
-    <row r="246" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="246" spans="1:45" s="20" customFormat="1">
       <c r="A246" s="19" t="s">
         <v>201</v>
       </c>
@@ -29628,7 +29627,7 @@
       <c r="AR246" s="29"/>
       <c r="AS246" s="28"/>
     </row>
-    <row r="247" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="247" spans="1:45" s="20" customFormat="1">
       <c r="A247" s="19" t="s">
         <v>201</v>
       </c>
@@ -29716,7 +29715,7 @@
       <c r="AR247" s="29"/>
       <c r="AS247" s="28"/>
     </row>
-    <row r="248" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="248" spans="1:45" s="20" customFormat="1">
       <c r="A248" s="19" t="s">
         <v>201</v>
       </c>
@@ -29804,7 +29803,7 @@
       <c r="AR248" s="29"/>
       <c r="AS248" s="28"/>
     </row>
-    <row r="249" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="249" spans="1:45" s="20" customFormat="1">
       <c r="A249" s="19" t="s">
         <v>201</v>
       </c>
@@ -29892,7 +29891,7 @@
       <c r="AR249" s="29"/>
       <c r="AS249" s="28"/>
     </row>
-    <row r="250" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="250" spans="1:45" s="20" customFormat="1">
       <c r="A250" s="19" t="s">
         <v>201</v>
       </c>
@@ -29980,7 +29979,7 @@
       <c r="AR250" s="29"/>
       <c r="AS250" s="28"/>
     </row>
-    <row r="251" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="251" spans="1:45" s="20" customFormat="1">
       <c r="A251" s="19" t="s">
         <v>201</v>
       </c>
@@ -30068,7 +30067,7 @@
       <c r="AR251" s="29"/>
       <c r="AS251" s="28"/>
     </row>
-    <row r="252" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="252" spans="1:45" s="20" customFormat="1">
       <c r="A252" s="19" t="s">
         <v>201</v>
       </c>
@@ -30156,7 +30155,7 @@
       <c r="AR252" s="29"/>
       <c r="AS252" s="28"/>
     </row>
-    <row r="253" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="253" spans="1:45" s="20" customFormat="1">
       <c r="A253" s="19" t="s">
         <v>201</v>
       </c>
@@ -30244,7 +30243,7 @@
       <c r="AR253" s="29"/>
       <c r="AS253" s="28"/>
     </row>
-    <row r="254" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="254" spans="1:45" s="20" customFormat="1">
       <c r="A254" s="19" t="s">
         <v>201</v>
       </c>
@@ -30332,7 +30331,7 @@
       <c r="AR254" s="29"/>
       <c r="AS254" s="28"/>
     </row>
-    <row r="255" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="255" spans="1:45" s="20" customFormat="1">
       <c r="A255" s="19" t="s">
         <v>201</v>
       </c>
@@ -30420,7 +30419,7 @@
       <c r="AR255" s="29"/>
       <c r="AS255" s="28"/>
     </row>
-    <row r="256" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="256" spans="1:45" s="20" customFormat="1">
       <c r="A256" s="19" t="s">
         <v>201</v>
       </c>
@@ -30508,7 +30507,7 @@
       <c r="AR256" s="29"/>
       <c r="AS256" s="28"/>
     </row>
-    <row r="257" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="257" spans="1:45" s="20" customFormat="1">
       <c r="A257" s="19" t="s">
         <v>201</v>
       </c>
@@ -30596,7 +30595,7 @@
       <c r="AR257" s="29"/>
       <c r="AS257" s="28"/>
     </row>
-    <row r="258" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="258" spans="1:45" s="20" customFormat="1">
       <c r="A258" s="19" t="s">
         <v>201</v>
       </c>
@@ -30684,7 +30683,7 @@
       <c r="AR258" s="29"/>
       <c r="AS258" s="28"/>
     </row>
-    <row r="259" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="259" spans="1:45" s="20" customFormat="1">
       <c r="A259" s="19" t="s">
         <v>201</v>
       </c>
@@ -30772,7 +30771,7 @@
       <c r="AR259" s="29"/>
       <c r="AS259" s="28"/>
     </row>
-    <row r="260" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="260" spans="1:45" s="20" customFormat="1">
       <c r="A260" s="19" t="s">
         <v>201</v>
       </c>
@@ -30860,7 +30859,7 @@
       <c r="AR260" s="29"/>
       <c r="AS260" s="28"/>
     </row>
-    <row r="261" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="261" spans="1:45" s="20" customFormat="1">
       <c r="A261" s="19" t="s">
         <v>201</v>
       </c>
@@ -30948,7 +30947,7 @@
       <c r="AR261" s="29"/>
       <c r="AS261" s="28"/>
     </row>
-    <row r="262" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="262" spans="1:45" s="20" customFormat="1">
       <c r="A262" s="19" t="s">
         <v>201</v>
       </c>
@@ -31036,7 +31035,7 @@
       <c r="AR262" s="29"/>
       <c r="AS262" s="28"/>
     </row>
-    <row r="263" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="263" spans="1:45" s="20" customFormat="1">
       <c r="A263" s="19" t="s">
         <v>201</v>
       </c>
@@ -31124,7 +31123,7 @@
       <c r="AR263" s="29"/>
       <c r="AS263" s="28"/>
     </row>
-    <row r="264" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="264" spans="1:45" s="20" customFormat="1">
       <c r="A264" s="19" t="s">
         <v>201</v>
       </c>
@@ -31212,7 +31211,7 @@
       <c r="AR264" s="29"/>
       <c r="AS264" s="28"/>
     </row>
-    <row r="265" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="265" spans="1:45" s="20" customFormat="1">
       <c r="A265" s="19" t="s">
         <v>201</v>
       </c>
@@ -31300,7 +31299,7 @@
       <c r="AR265" s="29"/>
       <c r="AS265" s="28"/>
     </row>
-    <row r="266" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="266" spans="1:45" s="20" customFormat="1">
       <c r="A266" s="19" t="s">
         <v>201</v>
       </c>
@@ -31388,7 +31387,7 @@
       <c r="AR266" s="29"/>
       <c r="AS266" s="28"/>
     </row>
-    <row r="267" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="267" spans="1:45" s="20" customFormat="1">
       <c r="A267" s="19" t="s">
         <v>201</v>
       </c>
@@ -31476,7 +31475,7 @@
       <c r="AR267" s="29"/>
       <c r="AS267" s="28"/>
     </row>
-    <row r="268" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="268" spans="1:45" s="20" customFormat="1">
       <c r="A268" s="19" t="s">
         <v>201</v>
       </c>
@@ -31564,7 +31563,7 @@
       <c r="AR268" s="29"/>
       <c r="AS268" s="28"/>
     </row>
-    <row r="269" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="269" spans="1:45" s="20" customFormat="1">
       <c r="A269" s="19" t="s">
         <v>201</v>
       </c>
@@ -31652,7 +31651,7 @@
       <c r="AR269" s="29"/>
       <c r="AS269" s="28"/>
     </row>
-    <row r="270" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="270" spans="1:45" s="20" customFormat="1">
       <c r="A270" s="19" t="s">
         <v>201</v>
       </c>
@@ -31740,7 +31739,7 @@
       <c r="AR270" s="29"/>
       <c r="AS270" s="28"/>
     </row>
-    <row r="271" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="271" spans="1:45" s="20" customFormat="1">
       <c r="A271" s="19" t="s">
         <v>201</v>
       </c>
@@ -31828,7 +31827,7 @@
       <c r="AR271" s="29"/>
       <c r="AS271" s="28"/>
     </row>
-    <row r="272" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="272" spans="1:45" s="20" customFormat="1">
       <c r="A272" s="19" t="s">
         <v>201</v>
       </c>
@@ -31916,7 +31915,7 @@
       <c r="AR272" s="29"/>
       <c r="AS272" s="28"/>
     </row>
-    <row r="273" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="273" spans="1:45" s="20" customFormat="1">
       <c r="A273" s="19" t="s">
         <v>201</v>
       </c>
@@ -32004,7 +32003,7 @@
       <c r="AR273" s="29"/>
       <c r="AS273" s="28"/>
     </row>
-    <row r="274" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="274" spans="1:45" s="20" customFormat="1">
       <c r="A274" s="19" t="s">
         <v>201</v>
       </c>
@@ -32092,7 +32091,7 @@
       <c r="AR274" s="29"/>
       <c r="AS274" s="28"/>
     </row>
-    <row r="275" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="275" spans="1:45" s="20" customFormat="1">
       <c r="A275" s="19" t="s">
         <v>201</v>
       </c>
@@ -32180,7 +32179,7 @@
       <c r="AR275" s="29"/>
       <c r="AS275" s="28"/>
     </row>
-    <row r="276" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="276" spans="1:45" s="20" customFormat="1">
       <c r="A276" s="19" t="s">
         <v>201</v>
       </c>
@@ -32268,7 +32267,7 @@
       <c r="AR276" s="29"/>
       <c r="AS276" s="28"/>
     </row>
-    <row r="277" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="277" spans="1:45" s="20" customFormat="1">
       <c r="A277" s="19" t="s">
         <v>201</v>
       </c>
@@ -32356,7 +32355,7 @@
       <c r="AR277" s="29"/>
       <c r="AS277" s="28"/>
     </row>
-    <row r="278" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="278" spans="1:45" s="20" customFormat="1">
       <c r="A278" s="19" t="s">
         <v>201</v>
       </c>
@@ -32444,7 +32443,7 @@
       <c r="AR278" s="29"/>
       <c r="AS278" s="28"/>
     </row>
-    <row r="279" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="279" spans="1:45" s="20" customFormat="1">
       <c r="A279" s="19" t="s">
         <v>201</v>
       </c>
@@ -32532,7 +32531,7 @@
       <c r="AR279" s="29"/>
       <c r="AS279" s="28"/>
     </row>
-    <row r="280" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="280" spans="1:45" s="20" customFormat="1">
       <c r="A280" s="19" t="s">
         <v>201</v>
       </c>
@@ -32620,7 +32619,7 @@
       <c r="AR280" s="29"/>
       <c r="AS280" s="28"/>
     </row>
-    <row r="281" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="281" spans="1:45" s="20" customFormat="1">
       <c r="A281" s="19" t="s">
         <v>201</v>
       </c>
@@ -32708,7 +32707,7 @@
       <c r="AR281" s="29"/>
       <c r="AS281" s="28"/>
     </row>
-    <row r="282" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="282" spans="1:45" s="20" customFormat="1">
       <c r="A282" s="19" t="s">
         <v>201</v>
       </c>
@@ -32796,7 +32795,7 @@
       <c r="AR282" s="29"/>
       <c r="AS282" s="28"/>
     </row>
-    <row r="283" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="283" spans="1:45" s="20" customFormat="1">
       <c r="A283" s="19" t="s">
         <v>201</v>
       </c>
@@ -32884,7 +32883,7 @@
       <c r="AR283" s="29"/>
       <c r="AS283" s="28"/>
     </row>
-    <row r="284" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="284" spans="1:45" s="20" customFormat="1">
       <c r="A284" s="19" t="s">
         <v>201</v>
       </c>
@@ -32972,7 +32971,7 @@
       <c r="AR284" s="29"/>
       <c r="AS284" s="28"/>
     </row>
-    <row r="285" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="285" spans="1:45" s="20" customFormat="1">
       <c r="A285" s="19" t="s">
         <v>201</v>
       </c>
@@ -33060,7 +33059,7 @@
       <c r="AR285" s="29"/>
       <c r="AS285" s="28"/>
     </row>
-    <row r="286" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="286" spans="1:45" s="20" customFormat="1">
       <c r="A286" s="19" t="s">
         <v>201</v>
       </c>
@@ -33148,7 +33147,7 @@
       <c r="AR286" s="29"/>
       <c r="AS286" s="28"/>
     </row>
-    <row r="287" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="287" spans="1:45" s="20" customFormat="1">
       <c r="A287" s="19" t="s">
         <v>201</v>
       </c>
@@ -33236,7 +33235,7 @@
       <c r="AR287" s="29"/>
       <c r="AS287" s="28"/>
     </row>
-    <row r="288" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="288" spans="1:45" s="20" customFormat="1">
       <c r="A288" s="19" t="s">
         <v>201</v>
       </c>
@@ -33324,7 +33323,7 @@
       <c r="AR288" s="29"/>
       <c r="AS288" s="28"/>
     </row>
-    <row r="289" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="289" spans="1:45" s="20" customFormat="1">
       <c r="A289" s="19" t="s">
         <v>201</v>
       </c>
@@ -33412,7 +33411,7 @@
       <c r="AR289" s="29"/>
       <c r="AS289" s="28"/>
     </row>
-    <row r="290" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="290" spans="1:45" s="20" customFormat="1">
       <c r="A290" s="19" t="s">
         <v>201</v>
       </c>
@@ -33500,7 +33499,7 @@
       <c r="AR290" s="29"/>
       <c r="AS290" s="28"/>
     </row>
-    <row r="291" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="291" spans="1:45" s="20" customFormat="1">
       <c r="A291" s="19" t="s">
         <v>201</v>
       </c>
@@ -33588,7 +33587,7 @@
       <c r="AR291" s="29"/>
       <c r="AS291" s="28"/>
     </row>
-    <row r="292" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="292" spans="1:45" s="20" customFormat="1">
       <c r="A292" s="19" t="s">
         <v>201</v>
       </c>
@@ -33676,7 +33675,7 @@
       <c r="AR292" s="29"/>
       <c r="AS292" s="28"/>
     </row>
-    <row r="293" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="293" spans="1:45" s="20" customFormat="1">
       <c r="A293" s="19" t="s">
         <v>201</v>
       </c>
@@ -33764,7 +33763,7 @@
       <c r="AR293" s="29"/>
       <c r="AS293" s="28"/>
     </row>
-    <row r="294" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="294" spans="1:45" s="20" customFormat="1">
       <c r="A294" s="19" t="s">
         <v>201</v>
       </c>
@@ -33852,7 +33851,7 @@
       <c r="AR294" s="29"/>
       <c r="AS294" s="28"/>
     </row>
-    <row r="295" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="295" spans="1:45" s="20" customFormat="1">
       <c r="A295" s="19" t="s">
         <v>201</v>
       </c>
@@ -33940,7 +33939,7 @@
       <c r="AR295" s="29"/>
       <c r="AS295" s="28"/>
     </row>
-    <row r="296" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="296" spans="1:45" s="20" customFormat="1">
       <c r="A296" s="19" t="s">
         <v>201</v>
       </c>
@@ -34028,7 +34027,7 @@
       <c r="AR296" s="29"/>
       <c r="AS296" s="28"/>
     </row>
-    <row r="297" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="297" spans="1:45" s="20" customFormat="1">
       <c r="A297" s="19" t="s">
         <v>201</v>
       </c>
@@ -34116,7 +34115,7 @@
       <c r="AR297" s="29"/>
       <c r="AS297" s="28"/>
     </row>
-    <row r="298" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="298" spans="1:45" s="20" customFormat="1">
       <c r="A298" s="19" t="s">
         <v>201</v>
       </c>
@@ -34204,7 +34203,7 @@
       <c r="AR298" s="29"/>
       <c r="AS298" s="28"/>
     </row>
-    <row r="299" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="299" spans="1:45" s="20" customFormat="1">
       <c r="A299" s="19" t="s">
         <v>201</v>
       </c>
@@ -34292,7 +34291,7 @@
       <c r="AR299" s="29"/>
       <c r="AS299" s="28"/>
     </row>
-    <row r="300" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="300" spans="1:45" s="20" customFormat="1">
       <c r="A300" s="19" t="s">
         <v>201</v>
       </c>
@@ -34380,7 +34379,7 @@
       <c r="AR300" s="29"/>
       <c r="AS300" s="28"/>
     </row>
-    <row r="301" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="301" spans="1:45" s="20" customFormat="1">
       <c r="A301" s="19" t="s">
         <v>201</v>
       </c>
@@ -34468,7 +34467,7 @@
       <c r="AR301" s="29"/>
       <c r="AS301" s="28"/>
     </row>
-    <row r="302" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="302" spans="1:45" s="20" customFormat="1">
       <c r="A302" s="19" t="s">
         <v>201</v>
       </c>
@@ -34556,7 +34555,7 @@
       <c r="AR302" s="29"/>
       <c r="AS302" s="28"/>
     </row>
-    <row r="303" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="303" spans="1:45" s="20" customFormat="1">
       <c r="A303" s="19" t="s">
         <v>201</v>
       </c>
@@ -34644,7 +34643,7 @@
       <c r="AR303" s="29"/>
       <c r="AS303" s="28"/>
     </row>
-    <row r="304" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="304" spans="1:45" s="20" customFormat="1">
       <c r="A304" s="19" t="s">
         <v>201</v>
       </c>
@@ -34732,7 +34731,7 @@
       <c r="AR304" s="29"/>
       <c r="AS304" s="28"/>
     </row>
-    <row r="305" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="305" spans="1:45" s="20" customFormat="1">
       <c r="A305" s="19" t="s">
         <v>201</v>
       </c>
@@ -34820,7 +34819,7 @@
       <c r="AR305" s="29"/>
       <c r="AS305" s="28"/>
     </row>
-    <row r="306" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="306" spans="1:45" s="20" customFormat="1">
       <c r="A306" s="19" t="s">
         <v>201</v>
       </c>
@@ -34908,7 +34907,7 @@
       <c r="AR306" s="29"/>
       <c r="AS306" s="28"/>
     </row>
-    <row r="307" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="307" spans="1:45" s="20" customFormat="1">
       <c r="A307" s="19" t="s">
         <v>201</v>
       </c>
@@ -34996,7 +34995,7 @@
       <c r="AR307" s="29"/>
       <c r="AS307" s="28"/>
     </row>
-    <row r="308" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="308" spans="1:45" s="20" customFormat="1">
       <c r="A308" s="19" t="s">
         <v>201</v>
       </c>
@@ -35084,7 +35083,7 @@
       <c r="AR308" s="29"/>
       <c r="AS308" s="28"/>
     </row>
-    <row r="309" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="309" spans="1:45" s="20" customFormat="1">
       <c r="A309" s="19" t="s">
         <v>201</v>
       </c>
@@ -35172,7 +35171,7 @@
       <c r="AR309" s="29"/>
       <c r="AS309" s="28"/>
     </row>
-    <row r="310" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="310" spans="1:45" s="20" customFormat="1">
       <c r="A310" s="19" t="s">
         <v>201</v>
       </c>
@@ -35260,7 +35259,7 @@
       <c r="AR310" s="29"/>
       <c r="AS310" s="28"/>
     </row>
-    <row r="311" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="311" spans="1:45" s="20" customFormat="1">
       <c r="A311" s="19" t="s">
         <v>201</v>
       </c>
@@ -35348,7 +35347,7 @@
       <c r="AR311" s="29"/>
       <c r="AS311" s="28"/>
     </row>
-    <row r="312" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="312" spans="1:45" s="20" customFormat="1">
       <c r="A312" s="19" t="s">
         <v>201</v>
       </c>
@@ -35436,7 +35435,7 @@
       <c r="AR312" s="29"/>
       <c r="AS312" s="28"/>
     </row>
-    <row r="313" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="313" spans="1:45" s="20" customFormat="1">
       <c r="A313" s="19" t="s">
         <v>201</v>
       </c>
@@ -35524,7 +35523,7 @@
       <c r="AR313" s="29"/>
       <c r="AS313" s="28"/>
     </row>
-    <row r="314" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="314" spans="1:45" s="20" customFormat="1">
       <c r="A314" s="19" t="s">
         <v>201</v>
       </c>
@@ -35612,7 +35611,7 @@
       <c r="AR314" s="29"/>
       <c r="AS314" s="28"/>
     </row>
-    <row r="315" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="315" spans="1:45" s="20" customFormat="1">
       <c r="A315" s="19" t="s">
         <v>201</v>
       </c>
@@ -35700,7 +35699,7 @@
       <c r="AR315" s="29"/>
       <c r="AS315" s="28"/>
     </row>
-    <row r="316" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="316" spans="1:45" s="20" customFormat="1">
       <c r="A316" s="19" t="s">
         <v>201</v>
       </c>
@@ -35788,7 +35787,7 @@
       <c r="AR316" s="29"/>
       <c r="AS316" s="28"/>
     </row>
-    <row r="317" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="317" spans="1:45" s="20" customFormat="1">
       <c r="A317" s="19" t="s">
         <v>201</v>
       </c>
@@ -35876,7 +35875,7 @@
       <c r="AR317" s="29"/>
       <c r="AS317" s="28"/>
     </row>
-    <row r="318" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="318" spans="1:45" s="20" customFormat="1">
       <c r="A318" s="19" t="s">
         <v>201</v>
       </c>
@@ -35964,7 +35963,7 @@
       <c r="AR318" s="29"/>
       <c r="AS318" s="28"/>
     </row>
-    <row r="319" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="319" spans="1:45" s="20" customFormat="1">
       <c r="A319" s="19" t="s">
         <v>201</v>
       </c>
@@ -36052,7 +36051,7 @@
       <c r="AR319" s="29"/>
       <c r="AS319" s="28"/>
     </row>
-    <row r="320" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="320" spans="1:45" s="20" customFormat="1">
       <c r="A320" s="19" t="s">
         <v>201</v>
       </c>
@@ -36140,7 +36139,7 @@
       <c r="AR320" s="29"/>
       <c r="AS320" s="28"/>
     </row>
-    <row r="321" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="321" spans="1:45" s="20" customFormat="1">
       <c r="A321" s="19" t="s">
         <v>201</v>
       </c>
@@ -36228,7 +36227,7 @@
       <c r="AR321" s="29"/>
       <c r="AS321" s="28"/>
     </row>
-    <row r="322" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="322" spans="1:45" s="20" customFormat="1">
       <c r="A322" s="19" t="s">
         <v>201</v>
       </c>
@@ -36316,7 +36315,7 @@
       <c r="AR322" s="29"/>
       <c r="AS322" s="28"/>
     </row>
-    <row r="323" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="323" spans="1:45" s="20" customFormat="1">
       <c r="A323" s="19" t="s">
         <v>201</v>
       </c>
@@ -36404,7 +36403,7 @@
       <c r="AR323" s="29"/>
       <c r="AS323" s="28"/>
     </row>
-    <row r="324" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="324" spans="1:45" s="20" customFormat="1">
       <c r="A324" s="19" t="s">
         <v>201</v>
       </c>
@@ -36492,7 +36491,7 @@
       <c r="AR324" s="29"/>
       <c r="AS324" s="28"/>
     </row>
-    <row r="325" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="325" spans="1:45" s="20" customFormat="1">
       <c r="A325" s="19" t="s">
         <v>201</v>
       </c>
@@ -36580,7 +36579,7 @@
       <c r="AR325" s="29"/>
       <c r="AS325" s="28"/>
     </row>
-    <row r="326" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="326" spans="1:45" s="20" customFormat="1">
       <c r="A326" s="19" t="s">
         <v>201</v>
       </c>
@@ -36668,7 +36667,7 @@
       <c r="AR326" s="29"/>
       <c r="AS326" s="28"/>
     </row>
-    <row r="327" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="327" spans="1:45" s="20" customFormat="1">
       <c r="A327" s="19" t="s">
         <v>201</v>
       </c>
@@ -36756,7 +36755,7 @@
       <c r="AR327" s="29"/>
       <c r="AS327" s="28"/>
     </row>
-    <row r="328" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="328" spans="1:45" s="20" customFormat="1">
       <c r="A328" s="19" t="s">
         <v>201</v>
       </c>
@@ -36844,7 +36843,7 @@
       <c r="AR328" s="29"/>
       <c r="AS328" s="28"/>
     </row>
-    <row r="329" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="329" spans="1:45" s="20" customFormat="1">
       <c r="A329" s="19" t="s">
         <v>201</v>
       </c>
@@ -36932,7 +36931,7 @@
       <c r="AR329" s="29"/>
       <c r="AS329" s="28"/>
     </row>
-    <row r="330" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="330" spans="1:45" s="20" customFormat="1">
       <c r="A330" s="19" t="s">
         <v>201</v>
       </c>
@@ -37020,7 +37019,7 @@
       <c r="AR330" s="29"/>
       <c r="AS330" s="28"/>
     </row>
-    <row r="331" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="331" spans="1:45" s="20" customFormat="1">
       <c r="A331" s="19" t="s">
         <v>201</v>
       </c>
@@ -37108,7 +37107,7 @@
       <c r="AR331" s="29"/>
       <c r="AS331" s="28"/>
     </row>
-    <row r="332" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="332" spans="1:45" s="20" customFormat="1">
       <c r="A332" s="19" t="s">
         <v>201</v>
       </c>
@@ -37196,7 +37195,7 @@
       <c r="AR332" s="29"/>
       <c r="AS332" s="28"/>
     </row>
-    <row r="333" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="333" spans="1:45" s="20" customFormat="1">
       <c r="A333" s="19" t="s">
         <v>201</v>
       </c>
@@ -37284,7 +37283,7 @@
       <c r="AR333" s="29"/>
       <c r="AS333" s="28"/>
     </row>
-    <row r="334" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="334" spans="1:45" s="20" customFormat="1">
       <c r="A334" s="19" t="s">
         <v>201</v>
       </c>
@@ -37372,7 +37371,7 @@
       <c r="AR334" s="29"/>
       <c r="AS334" s="28"/>
     </row>
-    <row r="335" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="335" spans="1:45" s="20" customFormat="1">
       <c r="A335" s="19" t="s">
         <v>201</v>
       </c>
@@ -37460,7 +37459,7 @@
       <c r="AR335" s="29"/>
       <c r="AS335" s="28"/>
     </row>
-    <row r="336" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="336" spans="1:45" s="20" customFormat="1">
       <c r="A336" s="19" t="s">
         <v>201</v>
       </c>
@@ -37548,7 +37547,7 @@
       <c r="AR336" s="29"/>
       <c r="AS336" s="28"/>
     </row>
-    <row r="337" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="337" spans="1:45" s="20" customFormat="1">
       <c r="A337" s="19" t="s">
         <v>201</v>
       </c>
@@ -37636,7 +37635,7 @@
       <c r="AR337" s="29"/>
       <c r="AS337" s="28"/>
     </row>
-    <row r="338" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="338" spans="1:45" s="20" customFormat="1">
       <c r="A338" s="19" t="s">
         <v>201</v>
       </c>
@@ -37724,7 +37723,7 @@
       <c r="AR338" s="29"/>
       <c r="AS338" s="28"/>
     </row>
-    <row r="339" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="339" spans="1:45" s="20" customFormat="1">
       <c r="A339" s="19" t="s">
         <v>201</v>
       </c>
@@ -37812,7 +37811,7 @@
       <c r="AR339" s="29"/>
       <c r="AS339" s="28"/>
     </row>
-    <row r="340" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="340" spans="1:45" s="20" customFormat="1">
       <c r="A340" s="19" t="s">
         <v>201</v>
       </c>
@@ -37900,7 +37899,7 @@
       <c r="AR340" s="29"/>
       <c r="AS340" s="28"/>
     </row>
-    <row r="341" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="341" spans="1:45" s="20" customFormat="1">
       <c r="A341" s="19" t="s">
         <v>201</v>
       </c>
@@ -37988,7 +37987,7 @@
       <c r="AR341" s="29"/>
       <c r="AS341" s="28"/>
     </row>
-    <row r="342" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="342" spans="1:45" s="20" customFormat="1">
       <c r="A342" s="19" t="s">
         <v>201</v>
       </c>
@@ -38076,7 +38075,7 @@
       <c r="AR342" s="29"/>
       <c r="AS342" s="28"/>
     </row>
-    <row r="343" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="343" spans="1:45" s="20" customFormat="1">
       <c r="A343" s="19" t="s">
         <v>201</v>
       </c>
@@ -38164,7 +38163,7 @@
       <c r="AR343" s="29"/>
       <c r="AS343" s="28"/>
     </row>
-    <row r="344" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="344" spans="1:45" s="20" customFormat="1">
       <c r="A344" s="19" t="s">
         <v>201</v>
       </c>
@@ -38252,7 +38251,7 @@
       <c r="AR344" s="29"/>
       <c r="AS344" s="28"/>
     </row>
-    <row r="345" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="345" spans="1:45" s="20" customFormat="1">
       <c r="A345" s="19" t="s">
         <v>201</v>
       </c>
@@ -38340,7 +38339,7 @@
       <c r="AR345" s="29"/>
       <c r="AS345" s="28"/>
     </row>
-    <row r="346" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="346" spans="1:45" s="20" customFormat="1">
       <c r="A346" s="19" t="s">
         <v>201</v>
       </c>
@@ -38428,7 +38427,7 @@
       <c r="AR346" s="29"/>
       <c r="AS346" s="28"/>
     </row>
-    <row r="347" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="347" spans="1:45" s="20" customFormat="1">
       <c r="A347" s="19" t="s">
         <v>201</v>
       </c>
@@ -38516,7 +38515,7 @@
       <c r="AR347" s="29"/>
       <c r="AS347" s="28"/>
     </row>
-    <row r="348" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="348" spans="1:45" s="20" customFormat="1">
       <c r="A348" s="19" t="s">
         <v>201</v>
       </c>
@@ -38604,7 +38603,7 @@
       <c r="AR348" s="29"/>
       <c r="AS348" s="28"/>
     </row>
-    <row r="349" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="349" spans="1:45" s="20" customFormat="1">
       <c r="A349" s="19" t="s">
         <v>201</v>
       </c>
@@ -38692,7 +38691,7 @@
       <c r="AR349" s="29"/>
       <c r="AS349" s="28"/>
     </row>
-    <row r="350" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="350" spans="1:45" s="20" customFormat="1">
       <c r="A350" s="19" t="s">
         <v>201</v>
       </c>
@@ -38780,7 +38779,7 @@
       <c r="AR350" s="29"/>
       <c r="AS350" s="28"/>
     </row>
-    <row r="351" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="351" spans="1:45" s="20" customFormat="1">
       <c r="A351" s="19" t="s">
         <v>201</v>
       </c>
@@ -38868,7 +38867,7 @@
       <c r="AR351" s="29"/>
       <c r="AS351" s="28"/>
     </row>
-    <row r="352" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="352" spans="1:45" s="20" customFormat="1">
       <c r="A352" s="19" t="s">
         <v>201</v>
       </c>
@@ -38956,7 +38955,7 @@
       <c r="AR352" s="29"/>
       <c r="AS352" s="28"/>
     </row>
-    <row r="353" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="353" spans="1:45" s="20" customFormat="1">
       <c r="A353" s="19" t="s">
         <v>201</v>
       </c>
@@ -39044,7 +39043,7 @@
       <c r="AR353" s="29"/>
       <c r="AS353" s="28"/>
     </row>
-    <row r="354" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="354" spans="1:45" s="20" customFormat="1">
       <c r="A354" s="19" t="s">
         <v>201</v>
       </c>
@@ -39132,7 +39131,7 @@
       <c r="AR354" s="29"/>
       <c r="AS354" s="28"/>
     </row>
-    <row r="355" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="355" spans="1:45" s="20" customFormat="1">
       <c r="A355" s="19" t="s">
         <v>201</v>
       </c>
@@ -39220,7 +39219,7 @@
       <c r="AR355" s="29"/>
       <c r="AS355" s="28"/>
     </row>
-    <row r="356" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="356" spans="1:45" s="20" customFormat="1">
       <c r="A356" s="19" t="s">
         <v>201</v>
       </c>
@@ -39308,7 +39307,7 @@
       <c r="AR356" s="29"/>
       <c r="AS356" s="28"/>
     </row>
-    <row r="357" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="357" spans="1:45" s="20" customFormat="1">
       <c r="A357" s="19" t="s">
         <v>201</v>
       </c>
@@ -39396,7 +39395,7 @@
       <c r="AR357" s="29"/>
       <c r="AS357" s="28"/>
     </row>
-    <row r="358" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="358" spans="1:45" s="20" customFormat="1">
       <c r="A358" s="19" t="s">
         <v>201</v>
       </c>
@@ -39484,7 +39483,7 @@
       <c r="AR358" s="29"/>
       <c r="AS358" s="28"/>
     </row>
-    <row r="359" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="359" spans="1:45" s="20" customFormat="1">
       <c r="A359" s="19" t="s">
         <v>201</v>
       </c>
@@ -39572,7 +39571,7 @@
       <c r="AR359" s="29"/>
       <c r="AS359" s="28"/>
     </row>
-    <row r="360" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="360" spans="1:45" s="20" customFormat="1">
       <c r="A360" s="19" t="s">
         <v>201</v>
       </c>
@@ -39660,7 +39659,7 @@
       <c r="AR360" s="29"/>
       <c r="AS360" s="28"/>
     </row>
-    <row r="361" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="361" spans="1:45" s="20" customFormat="1">
       <c r="A361" s="19" t="s">
         <v>201</v>
       </c>
@@ -39748,7 +39747,7 @@
       <c r="AR361" s="29"/>
       <c r="AS361" s="28"/>
     </row>
-    <row r="362" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="362" spans="1:45" s="20" customFormat="1">
       <c r="A362" s="19" t="s">
         <v>201</v>
       </c>
@@ -39836,7 +39835,7 @@
       <c r="AR362" s="29"/>
       <c r="AS362" s="28"/>
     </row>
-    <row r="363" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="363" spans="1:45" s="20" customFormat="1">
       <c r="A363" s="19" t="s">
         <v>201</v>
       </c>
@@ -39924,7 +39923,7 @@
       <c r="AR363" s="29"/>
       <c r="AS363" s="28"/>
     </row>
-    <row r="364" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="364" spans="1:45" s="20" customFormat="1">
       <c r="A364" s="19" t="s">
         <v>201</v>
       </c>
@@ -40012,7 +40011,7 @@
       <c r="AR364" s="29"/>
       <c r="AS364" s="28"/>
     </row>
-    <row r="365" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="365" spans="1:45" s="20" customFormat="1">
       <c r="A365" s="19" t="s">
         <v>201</v>
       </c>
@@ -40100,7 +40099,7 @@
       <c r="AR365" s="29"/>
       <c r="AS365" s="28"/>
     </row>
-    <row r="366" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="366" spans="1:45" s="20" customFormat="1">
       <c r="A366" s="19" t="s">
         <v>201</v>
       </c>
@@ -40188,7 +40187,7 @@
       <c r="AR366" s="29"/>
       <c r="AS366" s="28"/>
     </row>
-    <row r="367" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="367" spans="1:45" s="20" customFormat="1">
       <c r="A367" s="19" t="s">
         <v>201</v>
       </c>
@@ -40276,7 +40275,7 @@
       <c r="AR367" s="29"/>
       <c r="AS367" s="28"/>
     </row>
-    <row r="368" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="368" spans="1:45" s="20" customFormat="1">
       <c r="A368" s="19" t="s">
         <v>201</v>
       </c>
@@ -40364,7 +40363,7 @@
       <c r="AR368" s="29"/>
       <c r="AS368" s="28"/>
     </row>
-    <row r="369" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="369" spans="1:45" s="20" customFormat="1">
       <c r="A369" s="19" t="s">
         <v>201</v>
       </c>
@@ -40452,7 +40451,7 @@
       <c r="AR369" s="29"/>
       <c r="AS369" s="28"/>
     </row>
-    <row r="370" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="370" spans="1:45" s="20" customFormat="1">
       <c r="A370" s="19" t="s">
         <v>201</v>
       </c>
@@ -40540,7 +40539,7 @@
       <c r="AR370" s="29"/>
       <c r="AS370" s="28"/>
     </row>
-    <row r="371" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="371" spans="1:45" s="20" customFormat="1">
       <c r="A371" s="19" t="s">
         <v>201</v>
       </c>
@@ -40628,7 +40627,7 @@
       <c r="AR371" s="29"/>
       <c r="AS371" s="28"/>
     </row>
-    <row r="372" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="372" spans="1:45" s="20" customFormat="1">
       <c r="A372" s="19" t="s">
         <v>201</v>
       </c>
@@ -40716,7 +40715,7 @@
       <c r="AR372" s="29"/>
       <c r="AS372" s="28"/>
     </row>
-    <row r="373" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="373" spans="1:45" s="20" customFormat="1">
       <c r="A373" s="19" t="s">
         <v>201</v>
       </c>
@@ -40804,7 +40803,7 @@
       <c r="AR373" s="29"/>
       <c r="AS373" s="28"/>
     </row>
-    <row r="374" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="374" spans="1:45" s="20" customFormat="1">
       <c r="A374" s="19" t="s">
         <v>201</v>
       </c>
@@ -40892,7 +40891,7 @@
       <c r="AR374" s="29"/>
       <c r="AS374" s="28"/>
     </row>
-    <row r="375" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="375" spans="1:45" s="20" customFormat="1">
       <c r="A375" s="19" t="s">
         <v>201</v>
       </c>
@@ -40980,7 +40979,7 @@
       <c r="AR375" s="29"/>
       <c r="AS375" s="28"/>
     </row>
-    <row r="376" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="376" spans="1:45" s="20" customFormat="1">
       <c r="A376" s="19" t="s">
         <v>201</v>
       </c>
@@ -41068,7 +41067,7 @@
       <c r="AR376" s="29"/>
       <c r="AS376" s="28"/>
     </row>
-    <row r="377" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="377" spans="1:45" s="20" customFormat="1">
       <c r="A377" s="19" t="s">
         <v>201</v>
       </c>
@@ -41156,7 +41155,7 @@
       <c r="AR377" s="29"/>
       <c r="AS377" s="28"/>
     </row>
-    <row r="378" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="378" spans="1:45" s="20" customFormat="1">
       <c r="A378" s="19" t="s">
         <v>201</v>
       </c>
@@ -41244,7 +41243,7 @@
       <c r="AR378" s="29"/>
       <c r="AS378" s="28"/>
     </row>
-    <row r="379" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="379" spans="1:45" s="20" customFormat="1">
       <c r="A379" s="19" t="s">
         <v>201</v>
       </c>
@@ -41332,7 +41331,7 @@
       <c r="AR379" s="29"/>
       <c r="AS379" s="28"/>
     </row>
-    <row r="380" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="380" spans="1:45" s="20" customFormat="1">
       <c r="A380" s="19" t="s">
         <v>201</v>
       </c>
@@ -41420,7 +41419,7 @@
       <c r="AR380" s="29"/>
       <c r="AS380" s="28"/>
     </row>
-    <row r="381" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="381" spans="1:45" s="20" customFormat="1">
       <c r="A381" s="19" t="s">
         <v>201</v>
       </c>
@@ -41508,7 +41507,7 @@
       <c r="AR381" s="29"/>
       <c r="AS381" s="28"/>
     </row>
-    <row r="382" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="382" spans="1:45" s="20" customFormat="1">
       <c r="A382" s="19" t="s">
         <v>201</v>
       </c>
@@ -41596,7 +41595,7 @@
       <c r="AR382" s="29"/>
       <c r="AS382" s="28"/>
     </row>
-    <row r="383" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="383" spans="1:45" s="20" customFormat="1">
       <c r="A383" s="19" t="s">
         <v>201</v>
       </c>
@@ -41684,7 +41683,7 @@
       <c r="AR383" s="29"/>
       <c r="AS383" s="28"/>
     </row>
-    <row r="384" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="384" spans="1:45" s="20" customFormat="1">
       <c r="A384" s="19" t="s">
         <v>201</v>
       </c>
@@ -41772,7 +41771,7 @@
       <c r="AR384" s="29"/>
       <c r="AS384" s="28"/>
     </row>
-    <row r="385" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="385" spans="1:45" s="20" customFormat="1">
       <c r="A385" s="19" t="s">
         <v>201</v>
       </c>
@@ -41860,7 +41859,7 @@
       <c r="AR385" s="29"/>
       <c r="AS385" s="28"/>
     </row>
-    <row r="386" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="386" spans="1:45" s="20" customFormat="1">
       <c r="A386" s="19" t="s">
         <v>201</v>
       </c>
@@ -41948,7 +41947,7 @@
       <c r="AR386" s="29"/>
       <c r="AS386" s="28"/>
     </row>
-    <row r="387" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="387" spans="1:45" s="20" customFormat="1">
       <c r="A387" s="19" t="s">
         <v>201</v>
       </c>
@@ -42036,7 +42035,7 @@
       <c r="AR387" s="29"/>
       <c r="AS387" s="28"/>
     </row>
-    <row r="388" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="388" spans="1:45" s="20" customFormat="1">
       <c r="A388" s="19" t="s">
         <v>201</v>
       </c>
@@ -42124,7 +42123,7 @@
       <c r="AR388" s="29"/>
       <c r="AS388" s="28"/>
     </row>
-    <row r="389" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="389" spans="1:45" s="20" customFormat="1">
       <c r="A389" s="19" t="s">
         <v>201</v>
       </c>
@@ -42212,7 +42211,7 @@
       <c r="AR389" s="29"/>
       <c r="AS389" s="28"/>
     </row>
-    <row r="390" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="390" spans="1:45" s="20" customFormat="1">
       <c r="A390" s="19" t="s">
         <v>201</v>
       </c>
@@ -42300,7 +42299,7 @@
       <c r="AR390" s="29"/>
       <c r="AS390" s="28"/>
     </row>
-    <row r="391" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="391" spans="1:45" s="20" customFormat="1">
       <c r="A391" s="19" t="s">
         <v>201</v>
       </c>
@@ -42388,7 +42387,7 @@
       <c r="AR391" s="29"/>
       <c r="AS391" s="28"/>
     </row>
-    <row r="392" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="392" spans="1:45" s="20" customFormat="1">
       <c r="A392" s="19" t="s">
         <v>201</v>
       </c>
@@ -42476,7 +42475,7 @@
       <c r="AR392" s="29"/>
       <c r="AS392" s="28"/>
     </row>
-    <row r="393" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="393" spans="1:45" s="20" customFormat="1">
       <c r="A393" s="19" t="s">
         <v>201</v>
       </c>
@@ -42564,7 +42563,7 @@
       <c r="AR393" s="29"/>
       <c r="AS393" s="28"/>
     </row>
-    <row r="394" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="394" spans="1:45" s="20" customFormat="1">
       <c r="A394" s="19" t="s">
         <v>201</v>
       </c>
@@ -42652,7 +42651,7 @@
       <c r="AR394" s="29"/>
       <c r="AS394" s="28"/>
     </row>
-    <row r="395" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="395" spans="1:45" s="20" customFormat="1">
       <c r="A395" s="19" t="s">
         <v>201</v>
       </c>
@@ -42740,7 +42739,7 @@
       <c r="AR395" s="29"/>
       <c r="AS395" s="28"/>
     </row>
-    <row r="396" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="396" spans="1:45" s="20" customFormat="1">
       <c r="A396" s="19" t="s">
         <v>201</v>
       </c>
@@ -42828,7 +42827,7 @@
       <c r="AR396" s="29"/>
       <c r="AS396" s="28"/>
     </row>
-    <row r="397" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="397" spans="1:45" s="20" customFormat="1">
       <c r="A397" s="19" t="s">
         <v>201</v>
       </c>
@@ -42916,7 +42915,7 @@
       <c r="AR397" s="29"/>
       <c r="AS397" s="28"/>
     </row>
-    <row r="398" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="398" spans="1:45" s="20" customFormat="1">
       <c r="A398" s="19" t="s">
         <v>201</v>
       </c>
@@ -43004,7 +43003,7 @@
       <c r="AR398" s="29"/>
       <c r="AS398" s="28"/>
     </row>
-    <row r="399" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="399" spans="1:45" s="20" customFormat="1">
       <c r="A399" s="19" t="s">
         <v>201</v>
       </c>
@@ -43092,7 +43091,7 @@
       <c r="AR399" s="29"/>
       <c r="AS399" s="28"/>
     </row>
-    <row r="400" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="400" spans="1:45" s="20" customFormat="1">
       <c r="A400" s="19" t="s">
         <v>201</v>
       </c>
@@ -43180,7 +43179,7 @@
       <c r="AR400" s="29"/>
       <c r="AS400" s="28"/>
     </row>
-    <row r="401" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="401" spans="1:45" s="20" customFormat="1">
       <c r="A401" s="19" t="s">
         <v>201</v>
       </c>
@@ -43268,7 +43267,7 @@
       <c r="AR401" s="29"/>
       <c r="AS401" s="28"/>
     </row>
-    <row r="402" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="402" spans="1:45" s="20" customFormat="1">
       <c r="A402" s="19" t="s">
         <v>201</v>
       </c>
@@ -43356,7 +43355,7 @@
       <c r="AR402" s="29"/>
       <c r="AS402" s="28"/>
     </row>
-    <row r="403" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="403" spans="1:45" s="20" customFormat="1">
       <c r="A403" s="19" t="s">
         <v>201</v>
       </c>
@@ -43444,7 +43443,7 @@
       <c r="AR403" s="29"/>
       <c r="AS403" s="28"/>
     </row>
-    <row r="404" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="404" spans="1:45" s="20" customFormat="1">
       <c r="A404" s="19" t="s">
         <v>201</v>
       </c>
@@ -43532,7 +43531,7 @@
       <c r="AR404" s="29"/>
       <c r="AS404" s="28"/>
     </row>
-    <row r="405" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="405" spans="1:45" s="20" customFormat="1">
       <c r="A405" s="19" t="s">
         <v>201</v>
       </c>
@@ -43620,7 +43619,7 @@
       <c r="AR405" s="29"/>
       <c r="AS405" s="28"/>
     </row>
-    <row r="406" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="406" spans="1:45" s="20" customFormat="1">
       <c r="A406" s="19" t="s">
         <v>201</v>
       </c>
@@ -43708,7 +43707,7 @@
       <c r="AR406" s="29"/>
       <c r="AS406" s="28"/>
     </row>
-    <row r="407" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="407" spans="1:45" s="20" customFormat="1">
       <c r="A407" s="19" t="s">
         <v>201</v>
       </c>
@@ -43796,7 +43795,7 @@
       <c r="AR407" s="29"/>
       <c r="AS407" s="28"/>
     </row>
-    <row r="408" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="408" spans="1:45" s="20" customFormat="1">
       <c r="A408" s="19" t="s">
         <v>201</v>
       </c>
@@ -43884,7 +43883,7 @@
       <c r="AR408" s="29"/>
       <c r="AS408" s="28"/>
     </row>
-    <row r="409" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="409" spans="1:45" s="20" customFormat="1">
       <c r="A409" s="19" t="s">
         <v>201</v>
       </c>
@@ -43972,7 +43971,7 @@
       <c r="AR409" s="29"/>
       <c r="AS409" s="28"/>
     </row>
-    <row r="410" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="410" spans="1:45" s="20" customFormat="1">
       <c r="A410" s="19" t="s">
         <v>201</v>
       </c>
@@ -44060,7 +44059,7 @@
       <c r="AR410" s="29"/>
       <c r="AS410" s="28"/>
     </row>
-    <row r="411" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="411" spans="1:45" s="20" customFormat="1">
       <c r="A411" s="19" t="s">
         <v>201</v>
       </c>
@@ -44148,7 +44147,7 @@
       <c r="AR411" s="29"/>
       <c r="AS411" s="28"/>
     </row>
-    <row r="412" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="412" spans="1:45" s="20" customFormat="1">
       <c r="A412" s="19" t="s">
         <v>201</v>
       </c>
@@ -44236,7 +44235,7 @@
       <c r="AR412" s="29"/>
       <c r="AS412" s="28"/>
     </row>
-    <row r="413" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="413" spans="1:45" s="20" customFormat="1">
       <c r="A413" s="19" t="s">
         <v>201</v>
       </c>
@@ -44324,7 +44323,7 @@
       <c r="AR413" s="29"/>
       <c r="AS413" s="28"/>
     </row>
-    <row r="414" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="414" spans="1:45" s="20" customFormat="1">
       <c r="A414" s="19" t="s">
         <v>201</v>
       </c>
@@ -44412,7 +44411,7 @@
       <c r="AR414" s="29"/>
       <c r="AS414" s="28"/>
     </row>
-    <row r="415" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="415" spans="1:45" s="20" customFormat="1">
       <c r="A415" s="19" t="s">
         <v>201</v>
       </c>
@@ -44500,7 +44499,7 @@
       <c r="AR415" s="29"/>
       <c r="AS415" s="28"/>
     </row>
-    <row r="416" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="416" spans="1:45" s="20" customFormat="1">
       <c r="A416" s="19" t="s">
         <v>201</v>
       </c>
@@ -44588,7 +44587,7 @@
       <c r="AR416" s="29"/>
       <c r="AS416" s="28"/>
     </row>
-    <row r="417" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="417" spans="1:45" s="20" customFormat="1">
       <c r="A417" s="19" t="s">
         <v>201</v>
       </c>
@@ -44676,7 +44675,7 @@
       <c r="AR417" s="29"/>
       <c r="AS417" s="28"/>
     </row>
-    <row r="418" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="418" spans="1:45" s="20" customFormat="1">
       <c r="A418" s="19" t="s">
         <v>201</v>
       </c>
@@ -44764,7 +44763,7 @@
       <c r="AR418" s="29"/>
       <c r="AS418" s="28"/>
     </row>
-    <row r="419" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="419" spans="1:45" s="20" customFormat="1">
       <c r="A419" s="19" t="s">
         <v>201</v>
       </c>
@@ -44852,7 +44851,7 @@
       <c r="AR419" s="29"/>
       <c r="AS419" s="28"/>
     </row>
-    <row r="420" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="420" spans="1:45" s="20" customFormat="1">
       <c r="A420" s="19" t="s">
         <v>201</v>
       </c>
@@ -44940,7 +44939,7 @@
       <c r="AR420" s="29"/>
       <c r="AS420" s="28"/>
     </row>
-    <row r="421" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="421" spans="1:45" s="20" customFormat="1">
       <c r="A421" s="19" t="s">
         <v>201</v>
       </c>
@@ -45028,7 +45027,7 @@
       <c r="AR421" s="29"/>
       <c r="AS421" s="28"/>
     </row>
-    <row r="422" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="422" spans="1:45" s="20" customFormat="1">
       <c r="A422" s="19" t="s">
         <v>201</v>
       </c>
@@ -45116,7 +45115,7 @@
       <c r="AR422" s="29"/>
       <c r="AS422" s="28"/>
     </row>
-    <row r="423" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="423" spans="1:45" s="20" customFormat="1">
       <c r="A423" s="19" t="s">
         <v>201</v>
       </c>
@@ -45204,7 +45203,7 @@
       <c r="AR423" s="29"/>
       <c r="AS423" s="28"/>
     </row>
-    <row r="424" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="424" spans="1:45" s="20" customFormat="1">
       <c r="A424" s="19" t="s">
         <v>201</v>
       </c>
@@ -45292,7 +45291,7 @@
       <c r="AR424" s="29"/>
       <c r="AS424" s="28"/>
     </row>
-    <row r="425" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="425" spans="1:45" s="20" customFormat="1">
       <c r="A425" s="19" t="s">
         <v>201</v>
       </c>
@@ -45380,7 +45379,7 @@
       <c r="AR425" s="29"/>
       <c r="AS425" s="28"/>
     </row>
-    <row r="426" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="426" spans="1:45" s="20" customFormat="1">
       <c r="A426" s="19" t="s">
         <v>201</v>
       </c>
@@ -45468,7 +45467,7 @@
       <c r="AR426" s="29"/>
       <c r="AS426" s="28"/>
     </row>
-    <row r="427" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="427" spans="1:45" s="20" customFormat="1">
       <c r="A427" s="19" t="s">
         <v>201</v>
       </c>
@@ -45556,7 +45555,7 @@
       <c r="AR427" s="29"/>
       <c r="AS427" s="28"/>
     </row>
-    <row r="428" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="428" spans="1:45" s="20" customFormat="1">
       <c r="A428" s="19" t="s">
         <v>201</v>
       </c>
@@ -45644,7 +45643,7 @@
       <c r="AR428" s="29"/>
       <c r="AS428" s="28"/>
     </row>
-    <row r="429" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="429" spans="1:45" s="20" customFormat="1">
       <c r="A429" s="19" t="s">
         <v>201</v>
       </c>
@@ -45732,7 +45731,7 @@
       <c r="AR429" s="29"/>
       <c r="AS429" s="28"/>
     </row>
-    <row r="430" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="430" spans="1:45" s="20" customFormat="1">
       <c r="A430" s="19" t="s">
         <v>201</v>
       </c>
@@ -45820,7 +45819,7 @@
       <c r="AR430" s="29"/>
       <c r="AS430" s="28"/>
     </row>
-    <row r="431" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="431" spans="1:45" s="20" customFormat="1">
       <c r="A431" s="19" t="s">
         <v>201</v>
       </c>
@@ -45908,7 +45907,7 @@
       <c r="AR431" s="29"/>
       <c r="AS431" s="28"/>
     </row>
-    <row r="432" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="432" spans="1:45" s="20" customFormat="1">
       <c r="A432" s="19" t="s">
         <v>201</v>
       </c>
@@ -45996,7 +45995,7 @@
       <c r="AR432" s="29"/>
       <c r="AS432" s="28"/>
     </row>
-    <row r="433" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="433" spans="1:45" s="20" customFormat="1">
       <c r="A433" s="19" t="s">
         <v>201</v>
       </c>
@@ -46084,7 +46083,7 @@
       <c r="AR433" s="29"/>
       <c r="AS433" s="28"/>
     </row>
-    <row r="434" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="434" spans="1:45" s="20" customFormat="1">
       <c r="A434" s="19" t="s">
         <v>201</v>
       </c>
@@ -46172,7 +46171,7 @@
       <c r="AR434" s="29"/>
       <c r="AS434" s="28"/>
     </row>
-    <row r="435" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="435" spans="1:45" s="20" customFormat="1">
       <c r="A435" s="19" t="s">
         <v>201</v>
       </c>
@@ -46260,7 +46259,7 @@
       <c r="AR435" s="29"/>
       <c r="AS435" s="28"/>
     </row>
-    <row r="436" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="436" spans="1:45" s="20" customFormat="1">
       <c r="A436" s="19" t="s">
         <v>201</v>
       </c>
@@ -46348,7 +46347,7 @@
       <c r="AR436" s="29"/>
       <c r="AS436" s="28"/>
     </row>
-    <row r="437" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="437" spans="1:45" s="20" customFormat="1">
       <c r="A437" s="19" t="s">
         <v>201</v>
       </c>
@@ -46436,7 +46435,7 @@
       <c r="AR437" s="29"/>
       <c r="AS437" s="28"/>
     </row>
-    <row r="438" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="438" spans="1:45" s="20" customFormat="1">
       <c r="A438" s="19" t="s">
         <v>201</v>
       </c>
@@ -46524,7 +46523,7 @@
       <c r="AR438" s="29"/>
       <c r="AS438" s="28"/>
     </row>
-    <row r="439" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="439" spans="1:45" s="20" customFormat="1">
       <c r="A439" s="19" t="s">
         <v>201</v>
       </c>
@@ -46612,7 +46611,7 @@
       <c r="AR439" s="29"/>
       <c r="AS439" s="28"/>
     </row>
-    <row r="440" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="440" spans="1:45" s="20" customFormat="1">
       <c r="A440" s="19" t="s">
         <v>201</v>
       </c>
@@ -46700,7 +46699,7 @@
       <c r="AR440" s="29"/>
       <c r="AS440" s="28"/>
     </row>
-    <row r="441" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="441" spans="1:45" s="20" customFormat="1">
       <c r="A441" s="19" t="s">
         <v>201</v>
       </c>
@@ -46788,7 +46787,7 @@
       <c r="AR441" s="29"/>
       <c r="AS441" s="28"/>
     </row>
-    <row r="442" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="442" spans="1:45" s="20" customFormat="1">
       <c r="A442" s="19" t="s">
         <v>201</v>
       </c>
@@ -46876,7 +46875,7 @@
       <c r="AR442" s="29"/>
       <c r="AS442" s="28"/>
     </row>
-    <row r="443" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="443" spans="1:45" s="20" customFormat="1">
       <c r="A443" s="19" t="s">
         <v>201</v>
       </c>
@@ -46964,7 +46963,7 @@
       <c r="AR443" s="29"/>
       <c r="AS443" s="28"/>
     </row>
-    <row r="444" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="444" spans="1:45" s="20" customFormat="1">
       <c r="A444" s="19" t="s">
         <v>201</v>
       </c>
@@ -47052,7 +47051,7 @@
       <c r="AR444" s="29"/>
       <c r="AS444" s="28"/>
     </row>
-    <row r="445" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="445" spans="1:45" s="20" customFormat="1">
       <c r="A445" s="19" t="s">
         <v>201</v>
       </c>
@@ -47140,7 +47139,7 @@
       <c r="AR445" s="29"/>
       <c r="AS445" s="28"/>
     </row>
-    <row r="446" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="446" spans="1:45" s="20" customFormat="1">
       <c r="A446" s="19" t="s">
         <v>201</v>
       </c>
@@ -47228,7 +47227,7 @@
       <c r="AR446" s="29"/>
       <c r="AS446" s="28"/>
     </row>
-    <row r="447" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="447" spans="1:45" s="20" customFormat="1">
       <c r="A447" s="19" t="s">
         <v>201</v>
       </c>
@@ -47316,7 +47315,7 @@
       <c r="AR447" s="29"/>
       <c r="AS447" s="28"/>
     </row>
-    <row r="448" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="448" spans="1:45" s="20" customFormat="1">
       <c r="A448" s="19" t="s">
         <v>201</v>
       </c>
@@ -47404,7 +47403,7 @@
       <c r="AR448" s="29"/>
       <c r="AS448" s="28"/>
     </row>
-    <row r="449" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="449" spans="1:45" s="20" customFormat="1">
       <c r="A449" s="19" t="s">
         <v>201</v>
       </c>
@@ -47492,7 +47491,7 @@
       <c r="AR449" s="29"/>
       <c r="AS449" s="28"/>
     </row>
-    <row r="450" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="450" spans="1:45" s="20" customFormat="1">
       <c r="A450" s="19" t="s">
         <v>201</v>
       </c>
@@ -47580,7 +47579,7 @@
       <c r="AR450" s="29"/>
       <c r="AS450" s="28"/>
     </row>
-    <row r="451" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="451" spans="1:45" s="20" customFormat="1">
       <c r="A451" s="19" t="s">
         <v>201</v>
       </c>
@@ -47668,7 +47667,7 @@
       <c r="AR451" s="29"/>
       <c r="AS451" s="28"/>
     </row>
-    <row r="452" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="452" spans="1:45" s="20" customFormat="1">
       <c r="A452" s="19" t="s">
         <v>201</v>
       </c>
@@ -47756,7 +47755,7 @@
       <c r="AR452" s="29"/>
       <c r="AS452" s="28"/>
     </row>
-    <row r="453" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="453" spans="1:45" s="20" customFormat="1">
       <c r="A453" s="19" t="s">
         <v>201</v>
       </c>
@@ -47844,7 +47843,7 @@
       <c r="AR453" s="29"/>
       <c r="AS453" s="28"/>
     </row>
-    <row r="454" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="454" spans="1:45" s="20" customFormat="1">
       <c r="A454" s="19" t="s">
         <v>201</v>
       </c>
@@ -47932,7 +47931,7 @@
       <c r="AR454" s="29"/>
       <c r="AS454" s="28"/>
     </row>
-    <row r="455" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="455" spans="1:45" s="20" customFormat="1">
       <c r="A455" s="19" t="s">
         <v>201</v>
       </c>
@@ -48020,7 +48019,7 @@
       <c r="AR455" s="29"/>
       <c r="AS455" s="28"/>
     </row>
-    <row r="456" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="456" spans="1:45" s="20" customFormat="1">
       <c r="A456" s="19" t="s">
         <v>201</v>
       </c>
@@ -48108,7 +48107,7 @@
       <c r="AR456" s="29"/>
       <c r="AS456" s="28"/>
     </row>
-    <row r="457" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="457" spans="1:45" s="20" customFormat="1">
       <c r="A457" s="19" t="s">
         <v>201</v>
       </c>
@@ -48196,7 +48195,7 @@
       <c r="AR457" s="29"/>
       <c r="AS457" s="28"/>
     </row>
-    <row r="458" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="458" spans="1:45" s="20" customFormat="1">
       <c r="A458" s="19" t="s">
         <v>201</v>
       </c>
@@ -48284,7 +48283,7 @@
       <c r="AR458" s="29"/>
       <c r="AS458" s="28"/>
     </row>
-    <row r="459" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="459" spans="1:45" s="20" customFormat="1">
       <c r="A459" s="19" t="s">
         <v>201</v>
       </c>
@@ -48373,7 +48372,7 @@
       <c r="AR459" s="29"/>
       <c r="AS459" s="28"/>
     </row>
-    <row r="460" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="460" spans="1:45" s="20" customFormat="1">
       <c r="A460" s="19" t="s">
         <v>201</v>
       </c>
@@ -48461,7 +48460,7 @@
       <c r="AR460" s="29"/>
       <c r="AS460" s="28"/>
     </row>
-    <row r="461" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="461" spans="1:45" s="20" customFormat="1">
       <c r="A461" s="19" t="s">
         <v>201</v>
       </c>
@@ -48549,7 +48548,7 @@
       <c r="AR461" s="29"/>
       <c r="AS461" s="28"/>
     </row>
-    <row r="462" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="462" spans="1:45" s="20" customFormat="1">
       <c r="A462" s="19" t="s">
         <v>201</v>
       </c>
@@ -48637,7 +48636,7 @@
       <c r="AR462" s="29"/>
       <c r="AS462" s="28"/>
     </row>
-    <row r="463" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="463" spans="1:45" s="20" customFormat="1">
       <c r="A463" s="19" t="s">
         <v>201</v>
       </c>
@@ -48725,7 +48724,7 @@
       <c r="AR463" s="29"/>
       <c r="AS463" s="28"/>
     </row>
-    <row r="464" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="464" spans="1:45" s="20" customFormat="1">
       <c r="A464" s="19" t="s">
         <v>201</v>
       </c>
@@ -48813,7 +48812,7 @@
       <c r="AR464" s="29"/>
       <c r="AS464" s="28"/>
     </row>
-    <row r="465" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="465" spans="1:45" s="20" customFormat="1">
       <c r="A465" s="19" t="s">
         <v>201</v>
       </c>
@@ -48901,7 +48900,7 @@
       <c r="AR465" s="29"/>
       <c r="AS465" s="28"/>
     </row>
-    <row r="466" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="466" spans="1:45" s="20" customFormat="1">
       <c r="A466" s="19" t="s">
         <v>201</v>
       </c>
@@ -48989,7 +48988,7 @@
       <c r="AR466" s="29"/>
       <c r="AS466" s="28"/>
     </row>
-    <row r="467" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="467" spans="1:45" s="20" customFormat="1">
       <c r="A467" s="19" t="s">
         <v>201</v>
       </c>
@@ -49077,7 +49076,7 @@
       <c r="AR467" s="29"/>
       <c r="AS467" s="28"/>
     </row>
-    <row r="468" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="468" spans="1:45" s="20" customFormat="1">
       <c r="A468" s="19" t="s">
         <v>201</v>
       </c>
@@ -49165,7 +49164,7 @@
       <c r="AR468" s="29"/>
       <c r="AS468" s="28"/>
     </row>
-    <row r="469" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="469" spans="1:45" s="20" customFormat="1">
       <c r="A469" s="19" t="s">
         <v>201</v>
       </c>
@@ -49253,7 +49252,7 @@
       <c r="AR469" s="29"/>
       <c r="AS469" s="28"/>
     </row>
-    <row r="470" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="470" spans="1:45" s="20" customFormat="1">
       <c r="A470" s="19" t="s">
         <v>201</v>
       </c>
@@ -49341,7 +49340,7 @@
       <c r="AR470" s="29"/>
       <c r="AS470" s="28"/>
     </row>
-    <row r="471" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="471" spans="1:45" s="20" customFormat="1">
       <c r="A471" s="19" t="s">
         <v>201</v>
       </c>
@@ -49429,7 +49428,7 @@
       <c r="AR471" s="29"/>
       <c r="AS471" s="28"/>
     </row>
-    <row r="472" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="472" spans="1:45" s="20" customFormat="1">
       <c r="A472" s="19" t="s">
         <v>201</v>
       </c>
@@ -49517,7 +49516,7 @@
       <c r="AR472" s="29"/>
       <c r="AS472" s="28"/>
     </row>
-    <row r="473" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="473" spans="1:45" s="20" customFormat="1">
       <c r="A473" s="19" t="s">
         <v>201</v>
       </c>
@@ -49605,7 +49604,7 @@
       <c r="AR473" s="29"/>
       <c r="AS473" s="28"/>
     </row>
-    <row r="474" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="474" spans="1:45" s="20" customFormat="1">
       <c r="A474" s="19" t="s">
         <v>201</v>
       </c>
@@ -49693,7 +49692,7 @@
       <c r="AR474" s="29"/>
       <c r="AS474" s="28"/>
     </row>
-    <row r="475" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="475" spans="1:45" s="20" customFormat="1">
       <c r="A475" s="19" t="s">
         <v>201</v>
       </c>
@@ -49781,7 +49780,7 @@
       <c r="AR475" s="29"/>
       <c r="AS475" s="28"/>
     </row>
-    <row r="476" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="476" spans="1:45" s="20" customFormat="1">
       <c r="A476" s="19" t="s">
         <v>201</v>
       </c>
@@ -49869,7 +49868,7 @@
       <c r="AR476" s="29"/>
       <c r="AS476" s="28"/>
     </row>
-    <row r="477" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="477" spans="1:45" s="20" customFormat="1">
       <c r="A477" s="19" t="s">
         <v>201</v>
       </c>
@@ -49957,7 +49956,7 @@
       <c r="AR477" s="29"/>
       <c r="AS477" s="28"/>
     </row>
-    <row r="478" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="478" spans="1:45" s="20" customFormat="1">
       <c r="A478" s="19" t="s">
         <v>201</v>
       </c>
@@ -50045,7 +50044,7 @@
       <c r="AR478" s="29"/>
       <c r="AS478" s="28"/>
     </row>
-    <row r="479" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="479" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A479" s="19" t="s">
         <v>387</v>
       </c>
@@ -50146,7 +50145,7 @@
       <c r="AR479" s="29"/>
       <c r="AS479" s="28"/>
     </row>
-    <row r="480" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="480" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A480" s="19" t="s">
         <v>387</v>
       </c>
@@ -50247,7 +50246,7 @@
       <c r="AR480" s="29"/>
       <c r="AS480" s="28"/>
     </row>
-    <row r="481" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="481" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A481" s="19" t="s">
         <v>387</v>
       </c>
@@ -50348,7 +50347,7 @@
       <c r="AR481" s="29"/>
       <c r="AS481" s="28"/>
     </row>
-    <row r="482" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="482" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A482" s="19" t="s">
         <v>387</v>
       </c>
@@ -50450,7 +50449,7 @@
       <c r="AR482" s="29"/>
       <c r="AS482" s="28"/>
     </row>
-    <row r="483" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="483" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A483" s="19" t="s">
         <v>387</v>
       </c>
@@ -50551,7 +50550,7 @@
       <c r="AR483" s="29"/>
       <c r="AS483" s="28"/>
     </row>
-    <row r="484" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="484" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A484" s="19" t="s">
         <v>387</v>
       </c>
@@ -50652,7 +50651,7 @@
       <c r="AR484" s="29"/>
       <c r="AS484" s="28"/>
     </row>
-    <row r="485" spans="1:45" s="20" customFormat="1" ht="16" hidden="1" customHeight="1">
+    <row r="485" spans="1:45" s="20" customFormat="1" ht="16" customHeight="1">
       <c r="A485" s="19" t="s">
         <v>387</v>
       </c>
@@ -50753,7 +50752,7 @@
       <c r="AR485" s="29"/>
       <c r="AS485" s="28"/>
     </row>
-    <row r="486" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="486" spans="1:45" ht="16" customHeight="1">
       <c r="A486" s="19" t="s">
         <v>387</v>
       </c>
@@ -50858,7 +50857,7 @@
       <c r="AR486" s="29"/>
       <c r="AS486" s="28"/>
     </row>
-    <row r="487" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="487" spans="1:45" ht="16" customHeight="1">
       <c r="A487" s="19" t="s">
         <v>387</v>
       </c>
@@ -50963,7 +50962,7 @@
       <c r="AR487" s="29"/>
       <c r="AS487" s="28"/>
     </row>
-    <row r="488" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="488" spans="1:45" ht="16" customHeight="1">
       <c r="A488" s="19" t="s">
         <v>387</v>
       </c>
@@ -51068,7 +51067,7 @@
       <c r="AR488" s="29"/>
       <c r="AS488" s="28"/>
     </row>
-    <row r="489" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="489" spans="1:45" ht="16" customHeight="1">
       <c r="A489" s="19" t="s">
         <v>387</v>
       </c>
@@ -51173,7 +51172,7 @@
       <c r="AR489" s="29"/>
       <c r="AS489" s="28"/>
     </row>
-    <row r="490" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="490" spans="1:45" ht="16" customHeight="1">
       <c r="A490" s="19" t="s">
         <v>387</v>
       </c>
@@ -51278,7 +51277,7 @@
       <c r="AR490" s="29"/>
       <c r="AS490" s="28"/>
     </row>
-    <row r="491" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="491" spans="1:45" ht="16" customHeight="1">
       <c r="A491" s="19" t="s">
         <v>387</v>
       </c>
@@ -51383,7 +51382,7 @@
       <c r="AR491" s="29"/>
       <c r="AS491" s="28"/>
     </row>
-    <row r="492" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="492" spans="1:45" ht="16" customHeight="1">
       <c r="A492" s="19" t="s">
         <v>387</v>
       </c>
@@ -51488,7 +51487,7 @@
       <c r="AR492" s="29"/>
       <c r="AS492" s="28"/>
     </row>
-    <row r="493" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="493" spans="1:45" ht="16" customHeight="1">
       <c r="A493" s="19" t="s">
         <v>387</v>
       </c>
@@ -51593,7 +51592,7 @@
       <c r="AR493" s="29"/>
       <c r="AS493" s="28"/>
     </row>
-    <row r="494" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="494" spans="1:45" ht="16" customHeight="1">
       <c r="A494" s="19" t="s">
         <v>394</v>
       </c>
@@ -51698,7 +51697,7 @@
       <c r="AR494" s="29"/>
       <c r="AS494" s="28"/>
     </row>
-    <row r="495" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="495" spans="1:45" ht="16" customHeight="1">
       <c r="A495" s="19" t="s">
         <v>394</v>
       </c>
@@ -51804,7 +51803,7 @@
       <c r="AR495" s="29"/>
       <c r="AS495" s="28"/>
     </row>
-    <row r="496" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="496" spans="1:45" ht="16" customHeight="1">
       <c r="A496" s="19" t="s">
         <v>394</v>
       </c>
@@ -51909,7 +51908,7 @@
       <c r="AR496" s="29"/>
       <c r="AS496" s="28"/>
     </row>
-    <row r="497" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="497" spans="1:45" ht="16" customHeight="1">
       <c r="A497" s="19" t="s">
         <v>394</v>
       </c>
@@ -52012,7 +52011,7 @@
       <c r="AR497" s="29"/>
       <c r="AS497" s="28"/>
     </row>
-    <row r="498" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="498" spans="1:45" ht="16" customHeight="1">
       <c r="A498" s="19" t="s">
         <v>402</v>
       </c>
@@ -52124,7 +52123,7 @@
       <c r="AR498" s="29"/>
       <c r="AS498" s="28"/>
     </row>
-    <row r="499" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="499" spans="1:45" ht="16" customHeight="1">
       <c r="A499" s="19" t="s">
         <v>402</v>
       </c>
@@ -52236,7 +52235,7 @@
       <c r="AR499" s="29"/>
       <c r="AS499" s="28"/>
     </row>
-    <row r="500" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="500" spans="1:45" ht="16" customHeight="1">
       <c r="A500" s="19" t="s">
         <v>402</v>
       </c>
@@ -52348,7 +52347,7 @@
       <c r="AR500" s="29"/>
       <c r="AS500" s="28"/>
     </row>
-    <row r="501" spans="1:45" ht="16" hidden="1" customHeight="1">
+    <row r="501" spans="1:45" ht="16" customHeight="1">
       <c r="A501" s="19" t="s">
         <v>402</v>
       </c>
@@ -52460,7 +52459,7 @@
       <c r="AR501" s="29"/>
       <c r="AS501" s="28"/>
     </row>
-    <row r="502" spans="1:45" hidden="1">
+    <row r="502" spans="1:45">
       <c r="A502" s="19" t="s">
         <v>402</v>
       </c>
@@ -52572,7 +52571,7 @@
       <c r="AR502" s="29"/>
       <c r="AS502" s="28"/>
     </row>
-    <row r="503" spans="1:45" hidden="1">
+    <row r="503" spans="1:45">
       <c r="A503" s="19" t="s">
         <v>402</v>
       </c>
@@ -52684,7 +52683,7 @@
       <c r="AR503" s="29"/>
       <c r="AS503" s="28"/>
     </row>
-    <row r="504" spans="1:45" hidden="1">
+    <row r="504" spans="1:45">
       <c r="A504" s="19" t="s">
         <v>402</v>
       </c>
@@ -52796,7 +52795,7 @@
       <c r="AR504" s="29"/>
       <c r="AS504" s="28"/>
     </row>
-    <row r="505" spans="1:45" hidden="1">
+    <row r="505" spans="1:45">
       <c r="A505" s="19" t="s">
         <v>402</v>
       </c>
@@ -52908,7 +52907,7 @@
       <c r="AR505" s="29"/>
       <c r="AS505" s="28"/>
     </row>
-    <row r="506" spans="1:45" hidden="1">
+    <row r="506" spans="1:45">
       <c r="A506" s="19" t="s">
         <v>410</v>
       </c>
@@ -53005,7 +53004,7 @@
       </c>
       <c r="AS506" s="28"/>
     </row>
-    <row r="507" spans="1:45" hidden="1">
+    <row r="507" spans="1:45">
       <c r="A507" s="19" t="s">
         <v>415</v>
       </c>
@@ -53126,7 +53125,7 @@
       <c r="AR507" s="29"/>
       <c r="AS507" s="28"/>
     </row>
-    <row r="508" spans="1:45" hidden="1">
+    <row r="508" spans="1:45">
       <c r="A508" s="19" t="s">
         <v>415</v>
       </c>
@@ -53247,7 +53246,7 @@
       <c r="AR508" s="29"/>
       <c r="AS508" s="28"/>
     </row>
-    <row r="509" spans="1:45" hidden="1">
+    <row r="509" spans="1:45">
       <c r="A509" s="19" t="s">
         <v>415</v>
       </c>
@@ -53368,7 +53367,7 @@
       <c r="AR509" s="29"/>
       <c r="AS509" s="28"/>
     </row>
-    <row r="510" spans="1:45" hidden="1">
+    <row r="510" spans="1:45">
       <c r="A510" s="19" t="s">
         <v>415</v>
       </c>
@@ -53489,7 +53488,7 @@
       <c r="AR510" s="29"/>
       <c r="AS510" s="28"/>
     </row>
-    <row r="511" spans="1:45" hidden="1">
+    <row r="511" spans="1:45">
       <c r="A511" s="19" t="s">
         <v>415</v>
       </c>
@@ -53610,7 +53609,7 @@
       <c r="AR511" s="29"/>
       <c r="AS511" s="28"/>
     </row>
-    <row r="512" spans="1:45" hidden="1">
+    <row r="512" spans="1:45">
       <c r="A512" s="19" t="s">
         <v>415</v>
       </c>
@@ -53731,7 +53730,7 @@
       <c r="AR512" s="29"/>
       <c r="AS512" s="28"/>
     </row>
-    <row r="513" spans="1:45" s="37" customFormat="1" hidden="1">
+    <row r="513" spans="1:45" s="37" customFormat="1">
       <c r="A513" s="19" t="s">
         <v>415</v>
       </c>
@@ -53852,7 +53851,7 @@
       <c r="AR513" s="29"/>
       <c r="AS513" s="28"/>
     </row>
-    <row r="514" spans="1:45" hidden="1">
+    <row r="514" spans="1:45">
       <c r="A514" s="19" t="s">
         <v>415</v>
       </c>
@@ -53973,7 +53972,7 @@
       <c r="AR514" s="29"/>
       <c r="AS514" s="28"/>
     </row>
-    <row r="515" spans="1:45" hidden="1">
+    <row r="515" spans="1:45">
       <c r="A515" s="19" t="s">
         <v>415</v>
       </c>
@@ -54094,7 +54093,7 @@
       <c r="AR515" s="29"/>
       <c r="AS515" s="28"/>
     </row>
-    <row r="516" spans="1:45" hidden="1">
+    <row r="516" spans="1:45">
       <c r="A516" s="19" t="s">
         <v>415</v>
       </c>
@@ -54215,7 +54214,7 @@
       <c r="AR516" s="29"/>
       <c r="AS516" s="28"/>
     </row>
-    <row r="517" spans="1:45" hidden="1">
+    <row r="517" spans="1:45">
       <c r="A517" s="19" t="s">
         <v>415</v>
       </c>
@@ -54336,7 +54335,7 @@
       <c r="AR517" s="29"/>
       <c r="AS517" s="28"/>
     </row>
-    <row r="518" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="518" spans="1:45" s="30" customFormat="1">
       <c r="A518" s="19" t="s">
         <v>415</v>
       </c>
@@ -54457,7 +54456,7 @@
       <c r="AR518" s="29"/>
       <c r="AS518" s="28"/>
     </row>
-    <row r="519" spans="1:45" hidden="1">
+    <row r="519" spans="1:45">
       <c r="A519" s="19" t="s">
         <v>415</v>
       </c>
@@ -54578,7 +54577,7 @@
       <c r="AR519" s="29"/>
       <c r="AS519" s="28"/>
     </row>
-    <row r="520" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="520" spans="1:45" s="20" customFormat="1">
       <c r="A520" s="19" t="s">
         <v>415</v>
       </c>
@@ -54699,7 +54698,7 @@
       <c r="AR520" s="29"/>
       <c r="AS520" s="28"/>
     </row>
-    <row r="521" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="521" spans="1:45" s="30" customFormat="1">
       <c r="A521" s="67" t="s">
         <v>415</v>
       </c>
@@ -54820,7 +54819,7 @@
       <c r="AR521" s="71"/>
       <c r="AS521" s="70"/>
     </row>
-    <row r="522" spans="1:45" s="37" customFormat="1" hidden="1">
+    <row r="522" spans="1:45" s="37" customFormat="1">
       <c r="A522" s="19" t="s">
         <v>415</v>
       </c>
@@ -54941,7 +54940,7 @@
       <c r="AR522" s="29"/>
       <c r="AS522" s="28"/>
     </row>
-    <row r="523" spans="1:45" hidden="1">
+    <row r="523" spans="1:45">
       <c r="A523" s="19" t="s">
         <v>415</v>
       </c>
@@ -55062,7 +55061,7 @@
       <c r="AR523" s="29"/>
       <c r="AS523" s="28"/>
     </row>
-    <row r="524" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="524" spans="1:45" s="30" customFormat="1">
       <c r="A524" s="19" t="s">
         <v>415</v>
       </c>
@@ -55183,7 +55182,7 @@
       <c r="AR524" s="29"/>
       <c r="AS524" s="28"/>
     </row>
-    <row r="525" spans="1:45" hidden="1">
+    <row r="525" spans="1:45">
       <c r="A525" s="19" t="s">
         <v>415</v>
       </c>
@@ -55304,7 +55303,7 @@
       <c r="AR525" s="29"/>
       <c r="AS525" s="28"/>
     </row>
-    <row r="526" spans="1:45" hidden="1">
+    <row r="526" spans="1:45">
       <c r="A526" s="19" t="s">
         <v>415</v>
       </c>
@@ -55425,7 +55424,7 @@
       <c r="AR526" s="29"/>
       <c r="AS526" s="28"/>
     </row>
-    <row r="527" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="527" spans="1:45" s="30" customFormat="1">
       <c r="A527" s="19" t="s">
         <v>415</v>
       </c>
@@ -55546,7 +55545,7 @@
       <c r="AR527" s="29"/>
       <c r="AS527" s="28"/>
     </row>
-    <row r="528" spans="1:45" hidden="1">
+    <row r="528" spans="1:45">
       <c r="A528" s="19" t="s">
         <v>415</v>
       </c>
@@ -55667,7 +55666,7 @@
       <c r="AR528" s="29"/>
       <c r="AS528" s="28"/>
     </row>
-    <row r="529" spans="1:45" hidden="1">
+    <row r="529" spans="1:45">
       <c r="A529" s="19" t="s">
         <v>415</v>
       </c>
@@ -55788,7 +55787,7 @@
       <c r="AR529" s="29"/>
       <c r="AS529" s="28"/>
     </row>
-    <row r="530" spans="1:45" s="30" customFormat="1" hidden="1">
+    <row r="530" spans="1:45" s="30" customFormat="1">
       <c r="A530" s="19" t="s">
         <v>415</v>
       </c>
@@ -55909,7 +55908,7 @@
       <c r="AR530" s="29"/>
       <c r="AS530" s="28"/>
     </row>
-    <row r="531" spans="1:45" hidden="1">
+    <row r="531" spans="1:45">
       <c r="A531" s="19" t="s">
         <v>415</v>
       </c>
@@ -56030,7 +56029,7 @@
       <c r="AR531" s="29"/>
       <c r="AS531" s="28"/>
     </row>
-    <row r="532" spans="1:45" hidden="1">
+    <row r="532" spans="1:45">
       <c r="A532" s="19" t="s">
         <v>415</v>
       </c>
@@ -56151,7 +56150,7 @@
       <c r="AR532" s="29"/>
       <c r="AS532" s="28"/>
     </row>
-    <row r="533" spans="1:45" hidden="1">
+    <row r="533" spans="1:45">
       <c r="A533" s="19" t="s">
         <v>415</v>
       </c>
@@ -56272,7 +56271,7 @@
       <c r="AR533" s="29"/>
       <c r="AS533" s="28"/>
     </row>
-    <row r="534" spans="1:45" hidden="1">
+    <row r="534" spans="1:45">
       <c r="A534" s="19" t="s">
         <v>432</v>
       </c>
@@ -56398,7 +56397,7 @@
       </c>
       <c r="AS534" s="28"/>
     </row>
-    <row r="535" spans="1:45" hidden="1">
+    <row r="535" spans="1:45">
       <c r="A535" s="19" t="s">
         <v>432</v>
       </c>
@@ -56524,7 +56523,7 @@
       </c>
       <c r="AS535" s="28"/>
     </row>
-    <row r="536" spans="1:45" hidden="1">
+    <row r="536" spans="1:45">
       <c r="A536" s="19" t="s">
         <v>432</v>
       </c>
@@ -56646,7 +56645,7 @@
       <c r="AR536" s="29"/>
       <c r="AS536" s="28"/>
     </row>
-    <row r="537" spans="1:45" hidden="1">
+    <row r="537" spans="1:45">
       <c r="A537" s="19" t="s">
         <v>432</v>
       </c>
@@ -56763,7 +56762,7 @@
       <c r="AR537" s="29"/>
       <c r="AS537" s="28"/>
     </row>
-    <row r="538" spans="1:45" hidden="1">
+    <row r="538" spans="1:45">
       <c r="A538" s="19" t="s">
         <v>432</v>
       </c>
@@ -56885,7 +56884,7 @@
       <c r="AR538" s="29"/>
       <c r="AS538" s="28"/>
     </row>
-    <row r="539" spans="1:45" hidden="1">
+    <row r="539" spans="1:45">
       <c r="A539" s="19" t="s">
         <v>432</v>
       </c>
@@ -57007,7 +57006,7 @@
       <c r="AR539" s="29"/>
       <c r="AS539" s="28"/>
     </row>
-    <row r="540" spans="1:45" hidden="1">
+    <row r="540" spans="1:45">
       <c r="A540" s="19" t="s">
         <v>432</v>
       </c>
@@ -57128,7 +57127,7 @@
       <c r="AR540" s="29"/>
       <c r="AS540" s="28"/>
     </row>
-    <row r="541" spans="1:45" hidden="1">
+    <row r="541" spans="1:45">
       <c r="A541" s="19" t="s">
         <v>432</v>
       </c>
@@ -57241,7 +57240,7 @@
       <c r="AR541" s="29"/>
       <c r="AS541" s="28"/>
     </row>
-    <row r="542" spans="1:45" hidden="1">
+    <row r="542" spans="1:45">
       <c r="A542" s="19" t="s">
         <v>432</v>
       </c>
@@ -57354,7 +57353,7 @@
       <c r="AR542" s="29"/>
       <c r="AS542" s="28"/>
     </row>
-    <row r="543" spans="1:45" hidden="1">
+    <row r="543" spans="1:45">
       <c r="A543" s="19" t="s">
         <v>432</v>
       </c>
@@ -57467,7 +57466,7 @@
       <c r="AR543" s="29"/>
       <c r="AS543" s="28"/>
     </row>
-    <row r="544" spans="1:45" hidden="1">
+    <row r="544" spans="1:45">
       <c r="A544" s="19" t="s">
         <v>432</v>
       </c>
@@ -57580,7 +57579,7 @@
       <c r="AR544" s="29"/>
       <c r="AS544" s="28"/>
     </row>
-    <row r="545" spans="1:45" hidden="1">
+    <row r="545" spans="1:45">
       <c r="A545" s="19" t="s">
         <v>432</v>
       </c>
@@ -57693,7 +57692,7 @@
       <c r="AR545" s="29"/>
       <c r="AS545" s="28"/>
     </row>
-    <row r="546" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="546" spans="1:45" s="20" customFormat="1">
       <c r="A546" s="19" t="s">
         <v>442</v>
       </c>
@@ -57818,7 +57817,7 @@
       <c r="AR546" s="29"/>
       <c r="AS546" s="28"/>
     </row>
-    <row r="547" spans="1:45" s="20" customFormat="1" hidden="1">
+    <row r="547" spans="1:45" s="20" customFormat="1">
       <c r="A547" s="19" t="s">
         <v>442</v>
       </c>
@@ -57943,7 +57942,7 @@
       <c r="AR547" s="29"/>
       <c r="AS547" s="28"/>
     </row>
-    <row r="548" spans="1:45" hidden="1">
+    <row r="548" spans="1:45">
       <c r="A548" s="19" t="s">
         <v>442</v>
       </c>
@@ -58068,7 +58067,7 @@
       <c r="AR548" s="29"/>
       <c r="AS548" s="28"/>
     </row>
-    <row r="549" spans="1:45" hidden="1">
+    <row r="549" spans="1:45">
       <c r="A549" s="19" t="s">
         <v>442</v>
       </c>
@@ -58193,7 +58192,7 @@
       <c r="AR549" s="29"/>
       <c r="AS549" s="28"/>
     </row>
-    <row r="550" spans="1:45" hidden="1">
+    <row r="550" spans="1:45">
       <c r="A550" s="19" t="s">
         <v>442</v>
       </c>
@@ -58318,7 +58317,7 @@
       <c r="AR550" s="29"/>
       <c r="AS550" s="28"/>
     </row>
-    <row r="551" spans="1:45" hidden="1">
+    <row r="551" spans="1:45">
       <c r="A551" s="19" t="s">
         <v>442</v>
       </c>
@@ -58443,7 +58442,7 @@
       <c r="AR551" s="29"/>
       <c r="AS551" s="28"/>
     </row>
-    <row r="552" spans="1:45" hidden="1">
+    <row r="552" spans="1:45">
       <c r="A552" s="19" t="s">
         <v>452</v>
       </c>
@@ -58549,7 +58548,7 @@
       <c r="AR552" s="29"/>
       <c r="AS552" s="28"/>
     </row>
-    <row r="553" spans="1:45" hidden="1">
+    <row r="553" spans="1:45">
       <c r="A553" s="19" t="s">
         <v>452</v>
       </c>
@@ -58655,7 +58654,7 @@
       <c r="AR553" s="29"/>
       <c r="AS553" s="28"/>
     </row>
-    <row r="554" spans="1:45" hidden="1">
+    <row r="554" spans="1:45">
       <c r="A554" s="15" t="s">
         <v>725</v>
       </c>
@@ -58742,7 +58741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="555" spans="1:45" hidden="1">
+    <row r="555" spans="1:45">
       <c r="A555" s="15" t="s">
         <v>725</v>
       </c>
@@ -58840,13 +58839,7 @@
       <c r="A557" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS555" xr:uid="{E6365CF9-4557-4908-8670-7053B3C230A0}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Uncertain"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS555" xr:uid="{E6365CF9-4557-4908-8670-7053B3C230A0}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -63960,10 +63953,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L62"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4F7BF4-FA17-40D1-8899-452D359B6CBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD7B9BA-8ED7-48B6-8721-DBDE8EF8F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -4274,7 +4276,7 @@
   <dimension ref="A1:AS557"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G148" sqref="G148"/>
@@ -63953,10 +63955,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
   <dimension ref="A1:Z570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -66504,7 +66506,7 @@
         <v>623</v>
       </c>
       <c r="C41" s="45" t="str">
-        <f t="shared" si="8"/>
+        <f>A41&amp;"_"&amp;B41</f>
         <v>Haplochromis_burtoni_Haplochromis_nubilus</v>
       </c>
       <c r="D41" s="58" t="str">

--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B3735-28E4-40BE-86AC-68076530056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9108AD-AAB8-4CB9-AD0B-32A5957B21D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="6" r:id="rId2"/>
+    <sheet name="Species.level.data" sheetId="6" r:id="rId2"/>
+    <sheet name="Description" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Metadata!$A$1:$V$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phenotype!$A$1:$AM$555</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">Metadata!$A$1:$V$574</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Species.level.data'!$A$1:$V$62</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Phenotype!$A$1:$AM$557</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">Metadata!$A$1:$V$574</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'Species.level.data'!$A$1:$V$574</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Phenotype!$A$1:$AM$557</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'Species.level.data'!$A$1:$V$574</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="649">
   <si>
     <t>Study.ID</t>
   </si>
@@ -2205,6 +2206,140 @@
     <t>Study.name</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve"> ID of studies</t>
+  </si>
+  <si>
+    <t>Study.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Including author name(s) and published year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Source of phenotypc data in the primary studes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parental species used in the crossing expreiments. Distinguishes intraspecific populations.</t>
+  </si>
+  <si>
+    <t>Gennus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Studied genus</t>
+  </si>
+  <si>
+    <t>sp1.name and sp2.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crossed species. Ordered alphabetically.</t>
+  </si>
+  <si>
+    <t>species.pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parental species used in the crossing expreiments. Not distinguish intraspecific populations.</t>
+  </si>
+  <si>
+    <t>homologous</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measured traits are homologous across all crosses. If not, data has been excluded</t>
+  </si>
+  <si>
+    <t>trait.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sound or Morphology. Used in regressions bellow as a moderator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trait name described in primary studies</t>
+  </si>
+  <si>
+    <t>Mn.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phenotypic mean of each cross</t>
+  </si>
+  <si>
+    <t>SD.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD of phenotype in each cross</t>
+  </si>
+  <si>
+    <t>SE.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SE of phenotype in each cross</t>
+  </si>
+  <si>
+    <t>Parents.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of parents used in each crossing. Usually not provided by the primary studies.</t>
+  </si>
+  <si>
+    <t>N.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of individuals whose phenotype was measured</t>
+  </si>
+  <si>
+    <t>reps.~</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of measurements, if replicated (especially in behavioral traits). Not used in the analyses bellow.</t>
+  </si>
+  <si>
+    <t>Pheno.divergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phenotypic divergence between parents in the focal trait, which is calculated as absolute value of log response ratio (lnRR) of phenotypic means. Used in regressions bellow as a moderator.</t>
+  </si>
+  <si>
+    <t>Column names</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phenotype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reciprocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Viability of reciprocal hybrids, with two levels - Viable or Inviable</t>
+  </si>
+  <si>
+    <t>Genet.divergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural logarithm of genetic distance at mtDNA COI region (&gt;450bp).</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distribution overlap - Allopatry or Overlap</t>
+  </si>
+  <si>
+    <t>Hetero.sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heterogametic sex - Female (ZW and Z0) or Male (XY and X0)</t>
+  </si>
+  <si>
+    <t>Species.level.data</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2213,7 +2348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2269,6 +2404,13 @@
     <font>
       <sz val="10"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2347,7 +2489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2455,6 +2597,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2913,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -52347,7 +52495,7 @@
     <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -68870,4 +69018,233 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FEAB9C-4BA5-47C7-AA3E-15C9940AF475}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9108AD-AAB8-4CB9-AD0B-32A5957B21D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E7B5F-CA96-49FF-904D-B126CB0729F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
-    <sheet name="Species.level.data" sheetId="6" r:id="rId2"/>
+    <sheet name="Species.level.moderators" sheetId="6" r:id="rId2"/>
     <sheet name="Description" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phenotype!$A$1:$AM$555</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Species.level.data'!$A$1:$V$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Species.level.moderators'!$A$1:$V$62</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Phenotype!$A$1:$AM$557</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">'Species.level.data'!$A$1:$V$574</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'Species.level.moderators'!$A$1:$V$574</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Phenotype!$A$1:$AM$557</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">'Species.level.data'!$A$1:$V$574</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'Species.level.moderators'!$A$1:$V$574</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52492,7 +52492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C8A46-EA2B-4375-A470-1D2BA981D131}">
   <dimension ref="A1:X570"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
@@ -69024,7 +69024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FEAB9C-4BA5-47C7-AA3E-15C9940AF475}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -69246,5 +69246,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/original.data.xlsx
+++ b/data/original.data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katsu\Desktop\Meta_F1HybridVariation.scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F305E-6105-41C5-BC79-AEF12566D976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF34CA3-EB68-4A52-9CE7-8B51823232A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" tabRatio="997" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotype" sheetId="1" r:id="rId1"/>
     <sheet name="Species.level.moderators" sheetId="6" r:id="rId2"/>
     <sheet name="Description" sheetId="7" r:id="rId3"/>
+    <sheet name="Primary.studies" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Phenotype!$A$1:$AM$555</definedName>
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8069" uniqueCount="720">
   <si>
     <t>Study.ID</t>
   </si>
@@ -2340,6 +2341,219 @@
   <si>
     <t>Wells_1994</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First.author</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Blankers, T.</t>
+  </si>
+  <si>
+    <t>Phenotypic variation and covariation indicate high evolvability of acoustic communication in crickets</t>
+  </si>
+  <si>
+    <t>Journal of Evolutionary Biology</t>
+  </si>
+  <si>
+    <t>Butlin, R. K.</t>
+  </si>
+  <si>
+    <t>Genetics of behavioural and morphological differences between parapatric subspecies of *Chorthippus parallelus* (Orthoptera: Acrididae)</t>
+  </si>
+  <si>
+    <t>Biological Journal of the Linnean Society</t>
+  </si>
+  <si>
+    <t>Carson, H. L.</t>
+  </si>
+  <si>
+    <t>Change in male secondary sexual characters in artificial interspecific hybrid populations</t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences of the United States of America</t>
+  </si>
+  <si>
+    <t>Coyne, J.A.</t>
+  </si>
+  <si>
+    <t>Genetic basis of differences in genital morphology among three sibling species of *Drosophila*</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Genetic studies of three sibling species of *Drosophila* with relationship to theories of speciation</t>
+  </si>
+  <si>
+    <t>Genetical Research</t>
+  </si>
+  <si>
+    <t>Meiotic segregation and male recombination in interspecific hybrids of *Drosophila*</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>Genetics of morphological differences and hybrid sterility between *Drosophila sechellia* and its relatives</t>
+  </si>
+  <si>
+    <t>Crapon de caprona, MD.</t>
+  </si>
+  <si>
+    <t>Interspecific fertile hybrids of haplochromine cichlidae (Teleostei) and their possible importance for speciation</t>
+  </si>
+  <si>
+    <t>Netherlands Journal of Zoology</t>
+  </si>
+  <si>
+    <t>Deregnaucourt_2010</t>
+  </si>
+  <si>
+    <t>Derégnaucourt, S.</t>
+  </si>
+  <si>
+    <t>Interspecific hybridization as a tool to understand vocal divergence: The example of crowing in quail (Genus *Coturnix*)</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <t>Doherty &amp; Gerhardt 1984</t>
+  </si>
+  <si>
+    <t>Doherty, J. A.</t>
+  </si>
+  <si>
+    <t>Acoustic communication in hybrid treefrogs: sound production by males and selective phonotaxis by females</t>
+  </si>
+  <si>
+    <t>Journal of Comparative Physiology A</t>
+  </si>
+  <si>
+    <t>Ewing, A.W.</t>
+  </si>
+  <si>
+    <t>The genetic basis of sound production in *Drosophila pseudoobscura* and *D. persimilis*</t>
+  </si>
+  <si>
+    <t>Animal Behaviour</t>
+  </si>
+  <si>
+    <t>Van Der Sluijs, I.</t>
+  </si>
+  <si>
+    <t>Female mating preference functions predict sexual selection against hybrids between sibling species of cichlid fish</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society B: Biological Sciences</t>
+  </si>
+  <si>
+    <t>Gadenne, C.</t>
+  </si>
+  <si>
+    <t>Development and pheromone communication systems in hybrids of *Agrotis ipsilon* and *Agrotis segetum* (Lepidoptera: Noctuidae)</t>
+  </si>
+  <si>
+    <t>Journal of Chemical Ecology</t>
+  </si>
+  <si>
+    <t>Gottsberger, B.</t>
+  </si>
+  <si>
+    <t>Behavioral sterility of hybrid males in acoustically communicating grasshoppers (Acrididae, Gomphocerinae)</t>
+  </si>
+  <si>
+    <t>Journal of Comparative Physiology A: Neuroethology, Sensory, Neural, and Behavioral Physiology</t>
+  </si>
+  <si>
+    <t>Bentley, D. R.</t>
+  </si>
+  <si>
+    <t>Genetic control of the neuronal network generating cricket (*Teleogryllus gryllus*) song patterns</t>
+  </si>
+  <si>
+    <t>Magalhaes, I. S.</t>
+  </si>
+  <si>
+    <t>Genetics of male nuptial colour divergence between sympatric sister species of a Lake Victoria cichlid fish</t>
+  </si>
+  <si>
+    <t>Monti, L</t>
+  </si>
+  <si>
+    <t>Elliptic fourier analysis of the form of genitalia in two *Spodoptera* species and their hybrids (Lepidoptera: Noctuidae)</t>
+  </si>
+  <si>
+    <t>Musolf, K</t>
+  </si>
+  <si>
+    <t>Ultrasonic vocalizations of male mice differ among species and females show assortative preferences for male calls</t>
+  </si>
+  <si>
+    <t>Paallysaho et al_2003</t>
+  </si>
+  <si>
+    <t>Päällysaho, S.</t>
+  </si>
+  <si>
+    <t>Role of X chromosomal song genes in the evolution of species-specific courtship songs in *Drosophila virilis* group species</t>
+  </si>
+  <si>
+    <t>Behavior Genetics</t>
+  </si>
+  <si>
+    <t>Shaw, K. L.</t>
+  </si>
+  <si>
+    <t>Polygenic inheritance of a behavioral phenotype: Interspecific genetics of song in the Hawaiian cricket genus *Laupala*</t>
+  </si>
+  <si>
+    <t>Suvanto, L.</t>
+  </si>
+  <si>
+    <t>Secondary courtship songs and inhibitory songs of *Drosophila virilis*-group males</t>
+  </si>
+  <si>
+    <t>Tomaru, M.</t>
+  </si>
+  <si>
+    <t>Differences in courtship song in the species of the *Drosophila auraria* complex</t>
+  </si>
+  <si>
+    <t>Wells_1994</t>
+  </si>
+  <si>
+    <t>Wells, M. M.</t>
+  </si>
+  <si>
+    <t>Behavioral responses of hybrid lacewings (Neuroptera: Chrysopidae) to courtship songs</t>
+  </si>
+  <si>
+    <t>Journal of Insect Behavior</t>
+  </si>
+  <si>
+    <t>Interspecific genetics of mate recognition: Inheritance of female acoustic preference in Hawaiian crickets</t>
+  </si>
+  <si>
+    <t>Sasabe_et.al_2007</t>
+  </si>
+  <si>
+    <t>Sasabe, M.</t>
+  </si>
+  <si>
+    <t>The genetic basis of interspecific differences in genital morphology of closely related carabid beetles</t>
+  </si>
+  <si>
+    <t>Heredity</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E535" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -69249,4 +69463,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B124749-DE41-4E35-A21A-2B9F13496A95}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1988</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1994</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1983</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1985</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1986</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1991</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1969</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1972</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1996</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1994</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1994</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1994</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>